--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['52', '61', '64', '80']</t>
   </si>
   <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -419,6 +422,12 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['12', '24', '37', '54', '56', '59', '65', '75', '89']</t>
+  </si>
+  <si>
+    <t>['18', '47']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,7 +1254,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1326,7 +1335,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1451,7 +1460,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1657,7 +1666,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1863,7 +1872,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1941,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2069,7 +2078,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2275,7 +2284,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2481,7 +2490,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2559,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -2974,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3099,7 +3108,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3383,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3511,7 +3520,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3589,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
         <v>2.5</v>
@@ -3717,7 +3726,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3923,7 +3932,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4129,7 +4138,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4335,7 +4344,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4953,7 +4962,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5034,7 +5043,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>2.18</v>
@@ -5365,7 +5374,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5443,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5571,7 +5580,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5777,7 +5786,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5983,7 +5992,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6061,7 +6070,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -6267,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ27">
         <v>0.25</v>
@@ -6395,7 +6404,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6601,7 +6610,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7219,7 +7228,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7300,7 +7309,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>1.48</v>
@@ -7425,7 +7434,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7837,7 +7846,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8043,7 +8052,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8661,7 +8670,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8817,6 +8826,418 @@
         <v>0</v>
       </c>
       <c r="BP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7828496</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45766.35416666666</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q40">
+        <v>12</v>
+      </c>
+      <c r="R40">
+        <v>3.2</v>
+      </c>
+      <c r="S40">
+        <v>1.43</v>
+      </c>
+      <c r="T40">
+        <v>1.22</v>
+      </c>
+      <c r="U40">
+        <v>4.3</v>
+      </c>
+      <c r="V40">
+        <v>1.93</v>
+      </c>
+      <c r="W40">
+        <v>1.77</v>
+      </c>
+      <c r="X40">
+        <v>3.6</v>
+      </c>
+      <c r="Y40">
+        <v>1.25</v>
+      </c>
+      <c r="Z40">
+        <v>19</v>
+      </c>
+      <c r="AA40">
+        <v>8</v>
+      </c>
+      <c r="AB40">
+        <v>1.1</v>
+      </c>
+      <c r="AC40">
+        <v>1.03</v>
+      </c>
+      <c r="AD40">
+        <v>17</v>
+      </c>
+      <c r="AE40">
+        <v>1.09</v>
+      </c>
+      <c r="AF40">
+        <v>5.4</v>
+      </c>
+      <c r="AG40">
+        <v>1.43</v>
+      </c>
+      <c r="AH40">
+        <v>2.59</v>
+      </c>
+      <c r="AI40">
+        <v>2.64</v>
+      </c>
+      <c r="AJ40">
+        <v>1.45</v>
+      </c>
+      <c r="AK40">
+        <v>1.08</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>1.02</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>0.75</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>1.8</v>
+      </c>
+      <c r="AS40">
+        <v>2.11</v>
+      </c>
+      <c r="AT40">
+        <v>3.91</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>19</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>12</v>
+      </c>
+      <c r="AY40">
+        <v>10</v>
+      </c>
+      <c r="AZ40">
+        <v>31</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>8</v>
+      </c>
+      <c r="BC40">
+        <v>12</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7828497</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q41">
+        <v>3.77</v>
+      </c>
+      <c r="R41">
+        <v>2.12</v>
+      </c>
+      <c r="S41">
+        <v>2.59</v>
+      </c>
+      <c r="T41">
+        <v>1.3</v>
+      </c>
+      <c r="U41">
+        <v>3.2</v>
+      </c>
+      <c r="V41">
+        <v>2.4</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>5.5</v>
+      </c>
+      <c r="Y41">
+        <v>1.11</v>
+      </c>
+      <c r="Z41">
+        <v>2.97</v>
+      </c>
+      <c r="AA41">
+        <v>3.73</v>
+      </c>
+      <c r="AB41">
+        <v>2.15</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>9.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.2</v>
+      </c>
+      <c r="AF41">
+        <v>3.7</v>
+      </c>
+      <c r="AG41">
+        <v>1.76</v>
+      </c>
+      <c r="AH41">
+        <v>1.96</v>
+      </c>
+      <c r="AI41">
+        <v>1.57</v>
+      </c>
+      <c r="AJ41">
+        <v>2.2</v>
+      </c>
+      <c r="AK41">
+        <v>1.3</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>1.35</v>
+      </c>
+      <c r="AN41">
+        <v>1.5</v>
+      </c>
+      <c r="AO41">
+        <v>1.5</v>
+      </c>
+      <c r="AP41">
+        <v>1.2</v>
+      </c>
+      <c r="AQ41">
+        <v>1.8</v>
+      </c>
+      <c r="AR41">
+        <v>1.43</v>
+      </c>
+      <c r="AS41">
+        <v>2.27</v>
+      </c>
+      <c r="AT41">
+        <v>3.7</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>11</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>2</v>
+      </c>
+      <c r="AY41">
+        <v>10</v>
+      </c>
+      <c r="AZ41">
+        <v>13</v>
+      </c>
+      <c r="BA41">
+        <v>3</v>
+      </c>
+      <c r="BB41">
+        <v>8</v>
+      </c>
+      <c r="BC41">
+        <v>11</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,15 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['3', '51', '61', '63', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['21', '43', '74', '84']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -428,6 +437,12 @@
   </si>
   <si>
     <t>['18', '47']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -789,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1144,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1254,7 +1269,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1460,7 +1475,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1538,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -1666,7 +1681,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1872,7 +1887,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2078,7 +2093,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2156,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2284,7 +2299,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2362,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2490,7 +2505,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2571,7 +2586,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2777,7 +2792,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3108,7 +3123,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3520,7 +3535,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3726,7 +3741,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3807,7 +3822,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -3932,7 +3947,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4010,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4138,7 +4153,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4216,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4344,7 +4359,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4628,10 +4643,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>1.56</v>
@@ -4837,7 +4852,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR20">
         <v>2.45</v>
@@ -4962,7 +4977,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5374,7 +5389,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5580,7 +5595,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5658,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>2.5</v>
@@ -5786,7 +5801,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5867,7 +5882,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR25">
         <v>0.71</v>
@@ -5992,7 +6007,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6073,7 +6088,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>1.15</v>
@@ -6279,7 +6294,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ27">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR27">
         <v>1.38</v>
@@ -6404,7 +6419,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6485,7 +6500,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
         <v>2.38</v>
@@ -6610,7 +6625,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6688,7 +6703,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
         <v>2.5</v>
@@ -6894,10 +6909,10 @@
         <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>2.7</v>
@@ -7228,7 +7243,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7434,7 +7449,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7846,7 +7861,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -7927,7 +7942,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -8052,7 +8067,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8130,7 +8145,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AQ36">
         <v>2.33</v>
@@ -8336,7 +8351,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -8670,7 +8685,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8876,7 +8891,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9082,7 +9097,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9238,6 +9253,624 @@
         <v>0</v>
       </c>
       <c r="BP41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7828498</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45769.5</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q42">
+        <v>2.45</v>
+      </c>
+      <c r="R42">
+        <v>2.23</v>
+      </c>
+      <c r="S42">
+        <v>3.1</v>
+      </c>
+      <c r="T42">
+        <v>1.29</v>
+      </c>
+      <c r="U42">
+        <v>3.4</v>
+      </c>
+      <c r="V42">
+        <v>2.44</v>
+      </c>
+      <c r="W42">
+        <v>1.58</v>
+      </c>
+      <c r="X42">
+        <v>5.65</v>
+      </c>
+      <c r="Y42">
+        <v>1.13</v>
+      </c>
+      <c r="Z42">
+        <v>1.95</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>3.25</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>13</v>
+      </c>
+      <c r="AE42">
+        <v>1.2</v>
+      </c>
+      <c r="AF42">
+        <v>4.2</v>
+      </c>
+      <c r="AG42">
+        <v>1.65</v>
+      </c>
+      <c r="AH42">
+        <v>2.2</v>
+      </c>
+      <c r="AI42">
+        <v>1.47</v>
+      </c>
+      <c r="AJ42">
+        <v>2.3</v>
+      </c>
+      <c r="AK42">
+        <v>1.24</v>
+      </c>
+      <c r="AL42">
+        <v>1.26</v>
+      </c>
+      <c r="AM42">
+        <v>1.82</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0.75</v>
+      </c>
+      <c r="AP42">
+        <v>0.6</v>
+      </c>
+      <c r="AQ42">
+        <v>0.6</v>
+      </c>
+      <c r="AR42">
+        <v>1.17</v>
+      </c>
+      <c r="AS42">
+        <v>0.86</v>
+      </c>
+      <c r="AT42">
+        <v>2.03</v>
+      </c>
+      <c r="AU42">
+        <v>2</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>13</v>
+      </c>
+      <c r="AY42">
+        <v>7</v>
+      </c>
+      <c r="AZ42">
+        <v>19</v>
+      </c>
+      <c r="BA42">
+        <v>4</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>7</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7828499</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45769.5</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>7</v>
+      </c>
+      <c r="O43" t="s">
+        <v>112</v>
+      </c>
+      <c r="P43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43">
+        <v>1.35</v>
+      </c>
+      <c r="R43">
+        <v>3.3</v>
+      </c>
+      <c r="S43">
+        <v>11.1</v>
+      </c>
+      <c r="T43">
+        <v>1.18</v>
+      </c>
+      <c r="U43">
+        <v>4.7</v>
+      </c>
+      <c r="V43">
+        <v>1.87</v>
+      </c>
+      <c r="W43">
+        <v>1.8</v>
+      </c>
+      <c r="X43">
+        <v>3.88</v>
+      </c>
+      <c r="Y43">
+        <v>1.24</v>
+      </c>
+      <c r="Z43">
+        <v>1.09</v>
+      </c>
+      <c r="AA43">
+        <v>7.5</v>
+      </c>
+      <c r="AB43">
+        <v>14</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>29</v>
+      </c>
+      <c r="AE43">
+        <v>1.06</v>
+      </c>
+      <c r="AF43">
+        <v>7.5</v>
+      </c>
+      <c r="AG43">
+        <v>1.35</v>
+      </c>
+      <c r="AH43">
+        <v>3</v>
+      </c>
+      <c r="AI43">
+        <v>1.85</v>
+      </c>
+      <c r="AJ43">
+        <v>1.68</v>
+      </c>
+      <c r="AK43">
+        <v>1.01</v>
+      </c>
+      <c r="AL43">
+        <v>1.07</v>
+      </c>
+      <c r="AM43">
+        <v>4.9</v>
+      </c>
+      <c r="AN43">
+        <v>1.33</v>
+      </c>
+      <c r="AO43">
+        <v>0.25</v>
+      </c>
+      <c r="AP43">
+        <v>1.75</v>
+      </c>
+      <c r="AQ43">
+        <v>0.2</v>
+      </c>
+      <c r="AR43">
+        <v>2.31</v>
+      </c>
+      <c r="AS43">
+        <v>1.43</v>
+      </c>
+      <c r="AT43">
+        <v>3.74</v>
+      </c>
+      <c r="AU43">
+        <v>10</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>10</v>
+      </c>
+      <c r="AX43">
+        <v>5</v>
+      </c>
+      <c r="AY43">
+        <v>20</v>
+      </c>
+      <c r="AZ43">
+        <v>11</v>
+      </c>
+      <c r="BA43">
+        <v>6</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7828500</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45769.54166666666</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q44">
+        <v>1.66</v>
+      </c>
+      <c r="R44">
+        <v>2.75</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44">
+        <v>1.25</v>
+      </c>
+      <c r="U44">
+        <v>3.6</v>
+      </c>
+      <c r="V44">
+        <v>2.17</v>
+      </c>
+      <c r="W44">
+        <v>1.7</v>
+      </c>
+      <c r="X44">
+        <v>4.6</v>
+      </c>
+      <c r="Y44">
+        <v>1.14</v>
+      </c>
+      <c r="Z44">
+        <v>1.22</v>
+      </c>
+      <c r="AA44">
+        <v>5.25</v>
+      </c>
+      <c r="AB44">
+        <v>7.5</v>
+      </c>
+      <c r="AC44">
+        <v>1.03</v>
+      </c>
+      <c r="AD44">
+        <v>19</v>
+      </c>
+      <c r="AE44">
+        <v>1.1</v>
+      </c>
+      <c r="AF44">
+        <v>5</v>
+      </c>
+      <c r="AG44">
+        <v>1.42</v>
+      </c>
+      <c r="AH44">
+        <v>2.7</v>
+      </c>
+      <c r="AI44">
+        <v>1.8</v>
+      </c>
+      <c r="AJ44">
+        <v>1.95</v>
+      </c>
+      <c r="AK44">
+        <v>1.15</v>
+      </c>
+      <c r="AL44">
+        <v>1.14</v>
+      </c>
+      <c r="AM44">
+        <v>3.4</v>
+      </c>
+      <c r="AN44">
+        <v>1.75</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>0.8</v>
+      </c>
+      <c r="AR44">
+        <v>1.77</v>
+      </c>
+      <c r="AS44">
+        <v>1.24</v>
+      </c>
+      <c r="AT44">
+        <v>3.01</v>
+      </c>
+      <c r="AU44">
+        <v>12</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>9</v>
+      </c>
+      <c r="AX44">
+        <v>6</v>
+      </c>
+      <c r="AY44">
+        <v>21</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>3</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>0</v>
+      </c>
+      <c r="BL44">
+        <v>0</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,12 @@
     <t>['21', '43', '74', '84']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['57', '80']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -443,6 +449,12 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['6', '24']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1281,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1347,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ3">
         <v>1.8</v>
@@ -1475,7 +1487,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1556,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1681,7 +1693,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1887,7 +1899,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2093,7 +2105,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2299,7 +2311,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2380,7 +2392,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2505,7 +2517,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3123,7 +3135,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3201,10 +3213,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR12">
         <v>0.79</v>
@@ -3535,7 +3547,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3741,7 +3753,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3947,7 +3959,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4153,7 +4165,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4359,7 +4371,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4440,7 +4452,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4977,7 +4989,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5389,7 +5401,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5470,7 +5482,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5595,7 +5607,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5801,7 +5813,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5879,7 +5891,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6007,7 +6019,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6419,7 +6431,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6625,7 +6637,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7243,7 +7255,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7449,7 +7461,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7861,7 +7873,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -7939,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ35">
         <v>0.2</v>
@@ -8067,7 +8079,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8148,7 +8160,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ36">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8685,7 +8697,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8891,7 +8903,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -8972,7 +8984,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR40">
         <v>1.8</v>
@@ -9097,7 +9109,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9509,7 +9521,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9715,7 +9727,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9871,6 +9883,418 @@
         <v>0</v>
       </c>
       <c r="BP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7828501</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45770.5</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>114</v>
+      </c>
+      <c r="P45" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q45">
+        <v>4.75</v>
+      </c>
+      <c r="R45">
+        <v>2.1</v>
+      </c>
+      <c r="S45">
+        <v>2.25</v>
+      </c>
+      <c r="T45">
+        <v>1.48</v>
+      </c>
+      <c r="U45">
+        <v>2.5</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>1.34</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>1.05</v>
+      </c>
+      <c r="Z45">
+        <v>4.3</v>
+      </c>
+      <c r="AA45">
+        <v>3.25</v>
+      </c>
+      <c r="AB45">
+        <v>1.62</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>8.1</v>
+      </c>
+      <c r="AE45">
+        <v>1.36</v>
+      </c>
+      <c r="AF45">
+        <v>2.8</v>
+      </c>
+      <c r="AG45">
+        <v>2.07</v>
+      </c>
+      <c r="AH45">
+        <v>1.6</v>
+      </c>
+      <c r="AI45">
+        <v>2.1</v>
+      </c>
+      <c r="AJ45">
+        <v>1.73</v>
+      </c>
+      <c r="AK45">
+        <v>2</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>1.14</v>
+      </c>
+      <c r="AN45">
+        <v>0.5</v>
+      </c>
+      <c r="AO45">
+        <v>2.33</v>
+      </c>
+      <c r="AP45">
+        <v>0.4</v>
+      </c>
+      <c r="AQ45">
+        <v>2.5</v>
+      </c>
+      <c r="AR45">
+        <v>1.06</v>
+      </c>
+      <c r="AS45">
+        <v>2.12</v>
+      </c>
+      <c r="AT45">
+        <v>3.18</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>4</v>
+      </c>
+      <c r="AY45">
+        <v>12</v>
+      </c>
+      <c r="AZ45">
+        <v>8</v>
+      </c>
+      <c r="BA45">
+        <v>8</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>0</v>
+      </c>
+      <c r="BL45">
+        <v>0</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7828502</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45770.54166666666</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46">
+        <v>5.2</v>
+      </c>
+      <c r="R46">
+        <v>2.1</v>
+      </c>
+      <c r="S46">
+        <v>2.37</v>
+      </c>
+      <c r="T46">
+        <v>1.42</v>
+      </c>
+      <c r="U46">
+        <v>2.65</v>
+      </c>
+      <c r="V46">
+        <v>2.9</v>
+      </c>
+      <c r="W46">
+        <v>1.36</v>
+      </c>
+      <c r="X46">
+        <v>7.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>4.2</v>
+      </c>
+      <c r="AA46">
+        <v>3.4</v>
+      </c>
+      <c r="AB46">
+        <v>1.7</v>
+      </c>
+      <c r="AC46">
+        <v>1.03</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>1.28</v>
+      </c>
+      <c r="AF46">
+        <v>3.4</v>
+      </c>
+      <c r="AG46">
+        <v>1.9</v>
+      </c>
+      <c r="AH46">
+        <v>1.75</v>
+      </c>
+      <c r="AI46">
+        <v>1.9</v>
+      </c>
+      <c r="AJ46">
+        <v>1.78</v>
+      </c>
+      <c r="AK46">
+        <v>2</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>1.2</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>2.4</v>
+      </c>
+      <c r="AR46">
+        <v>2.34</v>
+      </c>
+      <c r="AS46">
+        <v>2.53</v>
+      </c>
+      <c r="AT46">
+        <v>4.87</v>
+      </c>
+      <c r="AU46">
+        <v>8</v>
+      </c>
+      <c r="AV46">
+        <v>8</v>
+      </c>
+      <c r="AW46">
+        <v>4</v>
+      </c>
+      <c r="AX46">
+        <v>10</v>
+      </c>
+      <c r="AY46">
+        <v>12</v>
+      </c>
+      <c r="AZ46">
+        <v>18</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>8</v>
+      </c>
+      <c r="BC46">
+        <v>13</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['57', '80']</t>
   </si>
   <si>
+    <t>['-1']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -455,6 +458,9 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1281,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1487,7 +1493,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1693,7 +1699,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1774,7 +1780,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1899,7 +1905,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1977,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2105,7 +2111,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2186,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>1.43</v>
@@ -2311,7 +2317,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2517,7 +2523,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2801,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ10">
         <v>0.2</v>
@@ -3135,7 +3141,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3422,7 +3428,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>1.59</v>
@@ -3547,7 +3553,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3625,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
         <v>2.5</v>
@@ -3753,7 +3759,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3959,7 +3965,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4165,7 +4171,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4246,7 +4252,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
         <v>1.11</v>
@@ -4371,7 +4377,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4449,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>2.5</v>
@@ -4989,7 +4995,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5401,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5607,7 +5613,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5813,7 +5819,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6019,7 +6025,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6097,7 +6103,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6431,7 +6437,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6637,7 +6643,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7130,7 +7136,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
         <v>2.69</v>
@@ -7255,7 +7261,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7461,7 +7467,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7539,10 +7545,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.28</v>
@@ -7873,7 +7879,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8079,7 +8085,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8366,7 +8372,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR37">
         <v>1.88</v>
@@ -8572,7 +8578,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>1.47</v>
@@ -8697,7 +8703,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8775,7 +8781,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8903,7 +8909,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -8981,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>2.4</v>
@@ -9109,7 +9115,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9521,7 +9527,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9727,7 +9733,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9933,7 +9939,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10139,7 +10145,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10295,6 +10301,418 @@
         <v>0</v>
       </c>
       <c r="BP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7828503</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45773.35416666666</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q47">
+        <v>2.35</v>
+      </c>
+      <c r="R47">
+        <v>2.22</v>
+      </c>
+      <c r="S47">
+        <v>3.4</v>
+      </c>
+      <c r="T47">
+        <v>1.3</v>
+      </c>
+      <c r="U47">
+        <v>3.14</v>
+      </c>
+      <c r="V47">
+        <v>2.5</v>
+      </c>
+      <c r="W47">
+        <v>1.47</v>
+      </c>
+      <c r="X47">
+        <v>5.8</v>
+      </c>
+      <c r="Y47">
+        <v>1.12</v>
+      </c>
+      <c r="Z47">
+        <v>2.15</v>
+      </c>
+      <c r="AA47">
+        <v>3.4</v>
+      </c>
+      <c r="AB47">
+        <v>2.7</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>12</v>
+      </c>
+      <c r="AE47">
+        <v>1.22</v>
+      </c>
+      <c r="AF47">
+        <v>3.8</v>
+      </c>
+      <c r="AG47">
+        <v>1.73</v>
+      </c>
+      <c r="AH47">
+        <v>2.1</v>
+      </c>
+      <c r="AI47">
+        <v>1.55</v>
+      </c>
+      <c r="AJ47">
+        <v>2.3</v>
+      </c>
+      <c r="AK47">
+        <v>1.29</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>1.65</v>
+      </c>
+      <c r="AN47">
+        <v>1.5</v>
+      </c>
+      <c r="AO47">
+        <v>1.5</v>
+      </c>
+      <c r="AP47">
+        <v>1.2</v>
+      </c>
+      <c r="AQ47">
+        <v>1.8</v>
+      </c>
+      <c r="AR47">
+        <v>1.51</v>
+      </c>
+      <c r="AS47">
+        <v>1.46</v>
+      </c>
+      <c r="AT47">
+        <v>2.97</v>
+      </c>
+      <c r="AU47">
+        <v>2</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>6</v>
+      </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
+      <c r="AZ47">
+        <v>13</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>4</v>
+      </c>
+      <c r="BC47">
+        <v>4</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>0</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7828504</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q48">
+        <v>8.5</v>
+      </c>
+      <c r="R48">
+        <v>3.2</v>
+      </c>
+      <c r="S48">
+        <v>1.32</v>
+      </c>
+      <c r="T48">
+        <v>1.18</v>
+      </c>
+      <c r="U48">
+        <v>4.4</v>
+      </c>
+      <c r="V48">
+        <v>1.95</v>
+      </c>
+      <c r="W48">
+        <v>1.83</v>
+      </c>
+      <c r="X48">
+        <v>4.1</v>
+      </c>
+      <c r="Y48">
+        <v>1.22</v>
+      </c>
+      <c r="Z48">
+        <v>16.73</v>
+      </c>
+      <c r="AA48">
+        <v>8</v>
+      </c>
+      <c r="AB48">
+        <v>1.12</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>18.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.09</v>
+      </c>
+      <c r="AF48">
+        <v>5.8</v>
+      </c>
+      <c r="AG48">
+        <v>1.44</v>
+      </c>
+      <c r="AH48">
+        <v>2.62</v>
+      </c>
+      <c r="AI48">
+        <v>2.11</v>
+      </c>
+      <c r="AJ48">
+        <v>1.69</v>
+      </c>
+      <c r="AK48">
+        <v>1.02</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>1.02</v>
+      </c>
+      <c r="AN48">
+        <v>0.75</v>
+      </c>
+      <c r="AO48">
+        <v>1.5</v>
+      </c>
+      <c r="AP48">
+        <v>1.2</v>
+      </c>
+      <c r="AQ48">
+        <v>1.2</v>
+      </c>
+      <c r="AR48">
+        <v>1.68</v>
+      </c>
+      <c r="AS48">
+        <v>1.76</v>
+      </c>
+      <c r="AT48">
+        <v>3.44</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>6</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>20</v>
+      </c>
+      <c r="AY48">
+        <v>8</v>
+      </c>
+      <c r="AZ48">
+        <v>26</v>
+      </c>
+      <c r="BA48">
+        <v>3</v>
+      </c>
+      <c r="BB48">
+        <v>11</v>
+      </c>
+      <c r="BC48">
+        <v>14</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>0</v>
+      </c>
+      <c r="BL48">
+        <v>0</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>['-1']</t>
+  </si>
+  <si>
+    <t>['5', '38', '71', '90+3']</t>
   </si>
   <si>
     <t>['34', '59', '86']</t>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1287,7 +1290,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1493,7 +1496,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1699,7 +1702,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1905,7 +1908,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1986,7 +1989,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2111,7 +2114,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2317,7 +2320,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2523,7 +2526,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3141,7 +3144,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3553,7 +3556,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3759,7 +3762,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3965,7 +3968,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4046,7 +4049,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4171,7 +4174,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4377,7 +4380,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4995,7 +4998,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5073,7 +5076,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ21">
         <v>1.8</v>
@@ -5282,7 +5285,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR22">
         <v>3.01</v>
@@ -5407,7 +5410,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5613,7 +5616,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5819,7 +5822,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6025,7 +6028,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6437,7 +6440,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6515,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ28">
         <v>0.6</v>
@@ -6643,7 +6646,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7261,7 +7264,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7467,7 +7470,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7751,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34">
         <v>2.5</v>
@@ -7879,7 +7882,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8085,7 +8088,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8703,7 +8706,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8784,7 +8787,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -8909,7 +8912,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9115,7 +9118,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9527,7 +9530,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9733,7 +9736,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9939,7 +9942,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10145,7 +10148,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10351,7 +10354,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10713,6 +10716,212 @@
         <v>0</v>
       </c>
       <c r="BP48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7828505</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45773.54166666666</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>117</v>
+      </c>
+      <c r="P49" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q49">
+        <v>1.38</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>12</v>
+      </c>
+      <c r="T49">
+        <v>1.24</v>
+      </c>
+      <c r="U49">
+        <v>4</v>
+      </c>
+      <c r="V49">
+        <v>2.25</v>
+      </c>
+      <c r="W49">
+        <v>1.7</v>
+      </c>
+      <c r="X49">
+        <v>4</v>
+      </c>
+      <c r="Y49">
+        <v>1.18</v>
+      </c>
+      <c r="Z49">
+        <v>1.07</v>
+      </c>
+      <c r="AA49">
+        <v>7.8</v>
+      </c>
+      <c r="AB49">
+        <v>16.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>12</v>
+      </c>
+      <c r="AE49">
+        <v>1.17</v>
+      </c>
+      <c r="AF49">
+        <v>4.75</v>
+      </c>
+      <c r="AG49">
+        <v>1.41</v>
+      </c>
+      <c r="AH49">
+        <v>2.52</v>
+      </c>
+      <c r="AI49">
+        <v>2.5</v>
+      </c>
+      <c r="AJ49">
+        <v>1.44</v>
+      </c>
+      <c r="AK49">
+        <v>1.13</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>6.8</v>
+      </c>
+      <c r="AN49">
+        <v>2.5</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>2.6</v>
+      </c>
+      <c r="AQ49">
+        <v>0.8</v>
+      </c>
+      <c r="AR49">
+        <v>2.61</v>
+      </c>
+      <c r="AS49">
+        <v>1.63</v>
+      </c>
+      <c r="AT49">
+        <v>4.24</v>
+      </c>
+      <c r="AU49">
+        <v>12</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>9</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>21</v>
+      </c>
+      <c r="AZ49">
+        <v>5</v>
+      </c>
+      <c r="BA49">
+        <v>14</v>
+      </c>
+      <c r="BB49">
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <v>16</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>0</v>
+      </c>
+      <c r="BL49">
+        <v>0</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>['57', '80']</t>
-  </si>
-  <si>
-    <t>['-1']</t>
   </si>
   <si>
     <t>['5', '38', '71', '90+3']</t>
@@ -1290,7 +1287,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1496,7 +1493,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1702,7 +1699,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1908,7 +1905,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2114,7 +2111,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2320,7 +2317,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2526,7 +2523,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3144,7 +3141,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3556,7 +3553,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3762,7 +3759,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3968,7 +3965,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4174,7 +4171,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4380,7 +4377,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4998,7 +4995,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5410,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5616,7 +5613,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5822,7 +5819,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6028,7 +6025,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6440,7 +6437,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6646,7 +6643,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7264,7 +7261,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7470,7 +7467,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7882,7 +7879,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8088,7 +8085,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8706,7 +8703,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8912,7 +8909,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9118,7 +9115,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9530,7 +9527,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9736,7 +9733,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9942,7 +9939,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10148,7 +10145,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10354,7 +10351,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10557,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="P48" t="s">
         <v>81</v>
@@ -10763,7 +10760,7 @@
         <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P49" t="s">
         <v>81</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['5', '38', '71', '90+3']</t>
   </si>
   <si>
+    <t>['12', '55']</t>
+  </si>
+  <si>
+    <t>['36', '75']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -461,6 +467,12 @@
   </si>
   <si>
     <t>['88']</t>
+  </si>
+  <si>
+    <t>['20', '58', '79']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,7 +1299,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1368,7 +1380,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1493,7 +1505,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1571,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
+        <v>1.67</v>
+      </c>
+      <c r="AQ4">
         <v>2</v>
-      </c>
-      <c r="AQ4">
-        <v>2.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1699,7 +1711,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1777,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -1905,7 +1917,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2111,7 +2123,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2189,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.8</v>
@@ -2317,7 +2329,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2523,7 +2535,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3016,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3141,7 +3153,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3553,7 +3565,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3759,7 +3771,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3837,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
         <v>0.8</v>
@@ -3965,7 +3977,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4171,7 +4183,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4377,7 +4389,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4458,7 +4470,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4661,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -4995,7 +5007,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5076,7 +5088,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>2.18</v>
@@ -5407,7 +5419,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5613,7 +5625,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5819,7 +5831,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6025,7 +6037,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6437,7 +6449,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6643,7 +6655,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7261,7 +7273,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7339,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.48</v>
@@ -7467,7 +7479,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7879,7 +7891,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8085,7 +8097,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8166,7 +8178,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8369,7 +8381,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ37">
         <v>1.2</v>
@@ -8575,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -8703,7 +8715,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8909,7 +8921,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9115,7 +9127,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9196,7 +9208,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.43</v>
@@ -9527,7 +9539,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9733,7 +9745,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9811,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>0.8</v>
@@ -9939,7 +9951,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10020,7 +10032,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10145,7 +10157,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10351,7 +10363,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10919,6 +10931,418 @@
         <v>0</v>
       </c>
       <c r="BP49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7828506</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45774.35416666666</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q50">
+        <v>2.62</v>
+      </c>
+      <c r="R50">
+        <v>2.25</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>1.28</v>
+      </c>
+      <c r="U50">
+        <v>3.2</v>
+      </c>
+      <c r="V50">
+        <v>2.4</v>
+      </c>
+      <c r="W50">
+        <v>1.47</v>
+      </c>
+      <c r="X50">
+        <v>6.2</v>
+      </c>
+      <c r="Y50">
+        <v>1.07</v>
+      </c>
+      <c r="Z50">
+        <v>2.01</v>
+      </c>
+      <c r="AA50">
+        <v>3.4</v>
+      </c>
+      <c r="AB50">
+        <v>3.05</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>12</v>
+      </c>
+      <c r="AE50">
+        <v>1.2</v>
+      </c>
+      <c r="AF50">
+        <v>3.82</v>
+      </c>
+      <c r="AG50">
+        <v>1.8</v>
+      </c>
+      <c r="AH50">
+        <v>1.96</v>
+      </c>
+      <c r="AI50">
+        <v>1.57</v>
+      </c>
+      <c r="AJ50">
+        <v>2.3</v>
+      </c>
+      <c r="AK50">
+        <v>1.33</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>1.62</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>1.8</v>
+      </c>
+      <c r="AP50">
+        <v>1.67</v>
+      </c>
+      <c r="AQ50">
+        <v>2</v>
+      </c>
+      <c r="AR50">
+        <v>1.94</v>
+      </c>
+      <c r="AS50">
+        <v>2.24</v>
+      </c>
+      <c r="AT50">
+        <v>4.18</v>
+      </c>
+      <c r="AU50">
+        <v>6</v>
+      </c>
+      <c r="AV50">
+        <v>10</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>15</v>
+      </c>
+      <c r="BA50">
+        <v>11</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>17</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>0</v>
+      </c>
+      <c r="BL50">
+        <v>0</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7828507</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45774.45833333334</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q51">
+        <v>4.55</v>
+      </c>
+      <c r="R51">
+        <v>2.16</v>
+      </c>
+      <c r="S51">
+        <v>2.15</v>
+      </c>
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.04</v>
+      </c>
+      <c r="V51">
+        <v>2.52</v>
+      </c>
+      <c r="W51">
+        <v>1.5</v>
+      </c>
+      <c r="X51">
+        <v>6.2</v>
+      </c>
+      <c r="Y51">
+        <v>1.06</v>
+      </c>
+      <c r="Z51">
+        <v>3.56</v>
+      </c>
+      <c r="AA51">
+        <v>3.95</v>
+      </c>
+      <c r="AB51">
+        <v>1.87</v>
+      </c>
+      <c r="AC51">
+        <v>1.04</v>
+      </c>
+      <c r="AD51">
+        <v>11.9</v>
+      </c>
+      <c r="AE51">
+        <v>1.18</v>
+      </c>
+      <c r="AF51">
+        <v>3.88</v>
+      </c>
+      <c r="AG51">
+        <v>1.73</v>
+      </c>
+      <c r="AH51">
+        <v>1.95</v>
+      </c>
+      <c r="AI51">
+        <v>1.67</v>
+      </c>
+      <c r="AJ51">
+        <v>2.1</v>
+      </c>
+      <c r="AK51">
+        <v>1.29</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>1.22</v>
+      </c>
+      <c r="AN51">
+        <v>0.75</v>
+      </c>
+      <c r="AO51">
+        <v>2.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.2</v>
+      </c>
+      <c r="AQ51">
+        <v>2</v>
+      </c>
+      <c r="AR51">
+        <v>1.64</v>
+      </c>
+      <c r="AS51">
+        <v>1.84</v>
+      </c>
+      <c r="AT51">
+        <v>3.48</v>
+      </c>
+      <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>1</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>15</v>
+      </c>
+      <c r="BA51">
+        <v>1</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>6</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['26', '45', '71']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -3231,7 +3234,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
         <v>2.4</v>
@@ -3646,7 +3649,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR14">
         <v>1.42</v>
@@ -5706,7 +5709,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR24">
         <v>3.56</v>
@@ -5909,7 +5912,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6736,7 +6739,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR29">
         <v>1.01</v>
@@ -7766,7 +7769,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR34">
         <v>2.81</v>
@@ -7969,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>0.2</v>
@@ -10029,7 +10032,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -11343,6 +11346,212 @@
         <v>0</v>
       </c>
       <c r="BP51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7828508</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45779.54166666666</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q52">
+        <v>6.5</v>
+      </c>
+      <c r="R52">
+        <v>2.4</v>
+      </c>
+      <c r="S52">
+        <v>1.84</v>
+      </c>
+      <c r="T52">
+        <v>1.31</v>
+      </c>
+      <c r="U52">
+        <v>3.14</v>
+      </c>
+      <c r="V52">
+        <v>2.38</v>
+      </c>
+      <c r="W52">
+        <v>1.53</v>
+      </c>
+      <c r="X52">
+        <v>5.25</v>
+      </c>
+      <c r="Y52">
+        <v>1.12</v>
+      </c>
+      <c r="Z52">
+        <v>9</v>
+      </c>
+      <c r="AA52">
+        <v>4.6</v>
+      </c>
+      <c r="AB52">
+        <v>1.31</v>
+      </c>
+      <c r="AC52">
+        <v>1.03</v>
+      </c>
+      <c r="AD52">
+        <v>13</v>
+      </c>
+      <c r="AE52">
+        <v>1.12</v>
+      </c>
+      <c r="AF52">
+        <v>4.1</v>
+      </c>
+      <c r="AG52">
+        <v>1.62</v>
+      </c>
+      <c r="AH52">
+        <v>2.15</v>
+      </c>
+      <c r="AI52">
+        <v>1.93</v>
+      </c>
+      <c r="AJ52">
+        <v>1.73</v>
+      </c>
+      <c r="AK52">
+        <v>3.14</v>
+      </c>
+      <c r="AL52">
+        <v>1.16</v>
+      </c>
+      <c r="AM52">
+        <v>1.02</v>
+      </c>
+      <c r="AN52">
+        <v>0.4</v>
+      </c>
+      <c r="AO52">
+        <v>2.5</v>
+      </c>
+      <c r="AP52">
+        <v>0.33</v>
+      </c>
+      <c r="AQ52">
+        <v>2.6</v>
+      </c>
+      <c r="AR52">
+        <v>1.16</v>
+      </c>
+      <c r="AS52">
+        <v>2.17</v>
+      </c>
+      <c r="AT52">
+        <v>3.33</v>
+      </c>
+      <c r="AU52">
+        <v>5</v>
+      </c>
+      <c r="AV52">
+        <v>9</v>
+      </c>
+      <c r="AW52">
+        <v>5</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>10</v>
+      </c>
+      <c r="AZ52">
+        <v>14</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>12</v>
+      </c>
+      <c r="BC52">
+        <v>16</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0</v>
+      </c>
+      <c r="BG52">
+        <v>0</v>
+      </c>
+      <c r="BH52">
+        <v>0</v>
+      </c>
+      <c r="BI52">
+        <v>0</v>
+      </c>
+      <c r="BJ52">
+        <v>0</v>
+      </c>
+      <c r="BK52">
+        <v>0</v>
+      </c>
+      <c r="BL52">
+        <v>0</v>
+      </c>
+      <c r="BM52">
+        <v>0</v>
+      </c>
+      <c r="BN52">
+        <v>0</v>
+      </c>
+      <c r="BO52">
+        <v>0</v>
+      </c>
+      <c r="BP52">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,12 @@
     <t>['36', '75']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['27', '49', '80', '90+1']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -476,6 +482,9 @@
   </si>
   <si>
     <t>['26', '45', '71']</t>
+  </si>
+  <si>
+    <t>['25', '60', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1186,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1302,7 +1311,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1508,7 +1517,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1714,7 +1723,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1920,7 +1929,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -1998,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2126,7 +2135,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2332,7 +2341,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2538,7 +2547,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2616,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -3156,7 +3165,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3440,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.2</v>
@@ -3568,7 +3577,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3646,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>2.6</v>
@@ -3774,7 +3783,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3855,7 +3864,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -3980,7 +3989,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4061,7 +4070,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4186,7 +4195,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4392,7 +4401,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5010,7 +5019,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5297,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>3.01</v>
@@ -5422,7 +5431,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5500,7 +5509,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>2.4</v>
@@ -5628,7 +5637,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5834,7 +5843,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5915,7 +5924,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>0.71</v>
@@ -6040,7 +6049,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6118,7 +6127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0.6</v>
@@ -6324,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>0.2</v>
@@ -6452,7 +6461,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6658,7 +6667,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6945,7 +6954,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>2.7</v>
@@ -7276,7 +7285,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7482,7 +7491,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7894,7 +7903,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8100,7 +8109,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8718,7 +8727,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8799,7 +8808,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ39">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -8924,7 +8933,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9002,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>2.4</v>
@@ -9130,7 +9139,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9208,7 +9217,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9542,7 +9551,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9748,7 +9757,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9829,7 +9838,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -9954,7 +9963,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10160,7 +10169,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10366,7 +10375,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10650,7 +10659,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.2</v>
@@ -10859,7 +10868,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>2.61</v>
@@ -10984,7 +10993,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11190,7 +11199,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11396,7 +11405,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11552,6 +11561,418 @@
         <v>0</v>
       </c>
       <c r="BP52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7828509</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45780.35416666666</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q53">
+        <v>3.35</v>
+      </c>
+      <c r="R53">
+        <v>2.24</v>
+      </c>
+      <c r="S53">
+        <v>2.8</v>
+      </c>
+      <c r="T53">
+        <v>1.25</v>
+      </c>
+      <c r="U53">
+        <v>3.4</v>
+      </c>
+      <c r="V53">
+        <v>2.25</v>
+      </c>
+      <c r="W53">
+        <v>1.55</v>
+      </c>
+      <c r="X53">
+        <v>5</v>
+      </c>
+      <c r="Y53">
+        <v>1.12</v>
+      </c>
+      <c r="Z53">
+        <v>2.8</v>
+      </c>
+      <c r="AA53">
+        <v>3.5</v>
+      </c>
+      <c r="AB53">
+        <v>2.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>13</v>
+      </c>
+      <c r="AE53">
+        <v>1.17</v>
+      </c>
+      <c r="AF53">
+        <v>4.4</v>
+      </c>
+      <c r="AG53">
+        <v>1.64</v>
+      </c>
+      <c r="AH53">
+        <v>2.21</v>
+      </c>
+      <c r="AI53">
+        <v>1.57</v>
+      </c>
+      <c r="AJ53">
+        <v>2.3</v>
+      </c>
+      <c r="AK53">
+        <v>1.3</v>
+      </c>
+      <c r="AL53">
+        <v>1.29</v>
+      </c>
+      <c r="AM53">
+        <v>1.36</v>
+      </c>
+      <c r="AN53">
+        <v>1.2</v>
+      </c>
+      <c r="AO53">
+        <v>0.8</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1.17</v>
+      </c>
+      <c r="AR53">
+        <v>1.56</v>
+      </c>
+      <c r="AS53">
+        <v>1.24</v>
+      </c>
+      <c r="AT53">
+        <v>2.8</v>
+      </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="AY53">
+        <v>10</v>
+      </c>
+      <c r="AZ53">
+        <v>13</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>6</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>0</v>
+      </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
+      <c r="BI53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>0</v>
+      </c>
+      <c r="BK53">
+        <v>0</v>
+      </c>
+      <c r="BL53">
+        <v>0</v>
+      </c>
+      <c r="BM53">
+        <v>0</v>
+      </c>
+      <c r="BN53">
+        <v>0</v>
+      </c>
+      <c r="BO53">
+        <v>0</v>
+      </c>
+      <c r="BP53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7828510</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q54">
+        <v>2.15</v>
+      </c>
+      <c r="R54">
+        <v>2.31</v>
+      </c>
+      <c r="S54">
+        <v>5.25</v>
+      </c>
+      <c r="T54">
+        <v>1.35</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2.45</v>
+      </c>
+      <c r="W54">
+        <v>1.48</v>
+      </c>
+      <c r="X54">
+        <v>6.85</v>
+      </c>
+      <c r="Y54">
+        <v>1.12</v>
+      </c>
+      <c r="Z54">
+        <v>1.52</v>
+      </c>
+      <c r="AA54">
+        <v>4.3</v>
+      </c>
+      <c r="AB54">
+        <v>5.6</v>
+      </c>
+      <c r="AC54">
+        <v>1.02</v>
+      </c>
+      <c r="AD54">
+        <v>10.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.19</v>
+      </c>
+      <c r="AF54">
+        <v>3.9</v>
+      </c>
+      <c r="AG54">
+        <v>1.61</v>
+      </c>
+      <c r="AH54">
+        <v>2.05</v>
+      </c>
+      <c r="AI54">
+        <v>1.7</v>
+      </c>
+      <c r="AJ54">
+        <v>1.88</v>
+      </c>
+      <c r="AK54">
+        <v>1.27</v>
+      </c>
+      <c r="AL54">
+        <v>1.22</v>
+      </c>
+      <c r="AM54">
+        <v>2.08</v>
+      </c>
+      <c r="AN54">
+        <v>1.2</v>
+      </c>
+      <c r="AO54">
+        <v>0.8</v>
+      </c>
+      <c r="AP54">
+        <v>1.5</v>
+      </c>
+      <c r="AQ54">
+        <v>0.67</v>
+      </c>
+      <c r="AR54">
+        <v>1.43</v>
+      </c>
+      <c r="AS54">
+        <v>1.45</v>
+      </c>
+      <c r="AT54">
+        <v>2.88</v>
+      </c>
+      <c r="AU54">
+        <v>10</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>12</v>
+      </c>
+      <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>22</v>
+      </c>
+      <c r="AZ54">
+        <v>5</v>
+      </c>
+      <c r="BA54">
+        <v>13</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>16</v>
+      </c>
+      <c r="BD54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>0</v>
+      </c>
+      <c r="BF54">
+        <v>0</v>
+      </c>
+      <c r="BG54">
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
+      </c>
+      <c r="BI54">
+        <v>0</v>
+      </c>
+      <c r="BJ54">
+        <v>0</v>
+      </c>
+      <c r="BK54">
+        <v>0</v>
+      </c>
+      <c r="BL54">
+        <v>0</v>
+      </c>
+      <c r="BM54">
+        <v>0</v>
+      </c>
+      <c r="BN54">
+        <v>0</v>
+      </c>
+      <c r="BO54">
+        <v>0</v>
+      </c>
+      <c r="BP54">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,12 @@
     <t>['27', '49', '80', '90+1']</t>
   </si>
   <si>
+    <t>['23', '44']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -484,7 +490,7 @@
     <t>['26', '45', '71']</t>
   </si>
   <si>
-    <t>['25', '60', '90+1']</t>
+    <t>['25', '60', '84']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1311,7 +1317,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1517,7 +1523,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1723,7 +1729,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1929,7 +1935,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2135,7 +2141,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2341,7 +2347,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2422,7 +2428,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2547,7 +2553,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2628,7 +2634,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3037,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3165,7 +3171,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3246,7 +3252,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0.79</v>
@@ -3577,7 +3583,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3783,7 +3789,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3989,7 +3995,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4067,7 +4073,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4195,7 +4201,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4401,7 +4407,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4688,7 +4694,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.56</v>
@@ -4891,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ20">
         <v>0.2</v>
@@ -5019,7 +5025,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5303,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5431,7 +5437,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5512,7 +5518,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5637,7 +5643,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5715,7 +5721,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>2.6</v>
@@ -5843,7 +5849,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6049,7 +6055,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6130,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.15</v>
@@ -6461,7 +6467,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6542,7 +6548,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>2.38</v>
@@ -6667,7 +6673,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6951,7 +6957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.17</v>
@@ -7157,7 +7163,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ31">
         <v>1.8</v>
@@ -7285,7 +7291,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7491,7 +7497,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7903,7 +7909,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8109,7 +8115,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8727,7 +8733,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8933,7 +8939,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9014,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.8</v>
@@ -9139,7 +9145,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9426,7 +9432,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9551,7 +9557,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9629,7 +9635,7 @@
         <v>0.25</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.2</v>
@@ -9757,7 +9763,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9963,7 +9969,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10169,7 +10175,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10247,10 +10253,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10375,7 +10381,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10993,7 +10999,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11199,7 +11205,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11405,7 +11411,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11611,7 +11617,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11973,6 +11979,418 @@
         <v>0</v>
       </c>
       <c r="BP54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7828511</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45781.35416666666</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q55">
+        <v>5.5</v>
+      </c>
+      <c r="R55">
+        <v>2.27</v>
+      </c>
+      <c r="S55">
+        <v>2</v>
+      </c>
+      <c r="T55">
+        <v>1.29</v>
+      </c>
+      <c r="U55">
+        <v>3.4</v>
+      </c>
+      <c r="V55">
+        <v>2.38</v>
+      </c>
+      <c r="W55">
+        <v>1.54</v>
+      </c>
+      <c r="X55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.12</v>
+      </c>
+      <c r="Z55">
+        <v>4.6</v>
+      </c>
+      <c r="AA55">
+        <v>3.8</v>
+      </c>
+      <c r="AB55">
+        <v>1.63</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>13</v>
+      </c>
+      <c r="AE55">
+        <v>1.15</v>
+      </c>
+      <c r="AF55">
+        <v>4.1</v>
+      </c>
+      <c r="AG55">
+        <v>1.6</v>
+      </c>
+      <c r="AH55">
+        <v>2.1</v>
+      </c>
+      <c r="AI55">
+        <v>1.65</v>
+      </c>
+      <c r="AJ55">
+        <v>2.15</v>
+      </c>
+      <c r="AK55">
+        <v>1.22</v>
+      </c>
+      <c r="AL55">
+        <v>1.21</v>
+      </c>
+      <c r="AM55">
+        <v>1.17</v>
+      </c>
+      <c r="AN55">
+        <v>1.75</v>
+      </c>
+      <c r="AO55">
+        <v>2.4</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>2.3</v>
+      </c>
+      <c r="AS55">
+        <v>2.46</v>
+      </c>
+      <c r="AT55">
+        <v>4.76</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>10</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>9</v>
+      </c>
+      <c r="AZ55">
+        <v>19</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>5</v>
+      </c>
+      <c r="BC55">
+        <v>8</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>0</v>
+      </c>
+      <c r="BH55">
+        <v>0</v>
+      </c>
+      <c r="BI55">
+        <v>0</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+      <c r="BK55">
+        <v>0</v>
+      </c>
+      <c r="BL55">
+        <v>0</v>
+      </c>
+      <c r="BM55">
+        <v>0</v>
+      </c>
+      <c r="BN55">
+        <v>0</v>
+      </c>
+      <c r="BO55">
+        <v>0</v>
+      </c>
+      <c r="BP55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7828512</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45781.45833333334</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q56">
+        <v>1.56</v>
+      </c>
+      <c r="R56">
+        <v>2.75</v>
+      </c>
+      <c r="S56">
+        <v>7.5</v>
+      </c>
+      <c r="T56">
+        <v>1.22</v>
+      </c>
+      <c r="U56">
+        <v>4.05</v>
+      </c>
+      <c r="V56">
+        <v>1.93</v>
+      </c>
+      <c r="W56">
+        <v>1.71</v>
+      </c>
+      <c r="X56">
+        <v>4.4</v>
+      </c>
+      <c r="Y56">
+        <v>1.18</v>
+      </c>
+      <c r="Z56">
+        <v>1.26</v>
+      </c>
+      <c r="AA56">
+        <v>6.4</v>
+      </c>
+      <c r="AB56">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>15.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.13</v>
+      </c>
+      <c r="AF56">
+        <v>5.9</v>
+      </c>
+      <c r="AG56">
+        <v>1.43</v>
+      </c>
+      <c r="AH56">
+        <v>2.62</v>
+      </c>
+      <c r="AI56">
+        <v>1.94</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.13</v>
+      </c>
+      <c r="AL56">
+        <v>1.07</v>
+      </c>
+      <c r="AM56">
+        <v>3.8</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0.6</v>
+      </c>
+      <c r="AP56">
+        <v>2.67</v>
+      </c>
+      <c r="AQ56">
+        <v>0.67</v>
+      </c>
+      <c r="AR56">
+        <v>2.2</v>
+      </c>
+      <c r="AS56">
+        <v>1.07</v>
+      </c>
+      <c r="AT56">
+        <v>3.27</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>20</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>27</v>
+      </c>
+      <c r="AZ56">
+        <v>5</v>
+      </c>
+      <c r="BA56">
+        <v>13</v>
+      </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>13</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>['25', '60', '84']</t>
+  </si>
+  <si>
+    <t>['43', '82', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2837,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0.2</v>
@@ -3664,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR14">
         <v>1.42</v>
@@ -4485,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -5724,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR24">
         <v>3.56</v>
@@ -6754,7 +6757,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR29">
         <v>1.01</v>
@@ -7575,7 +7578,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -7784,7 +7787,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ34">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR34">
         <v>2.81</v>
@@ -8811,7 +8814,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>0.67</v>
@@ -10459,7 +10462,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.8</v>
@@ -11492,7 +11495,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ52">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR52">
         <v>1.16</v>
@@ -12391,6 +12394,212 @@
         <v>0</v>
       </c>
       <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7828513</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45786.54166666666</v>
+      </c>
+      <c r="F57">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>81</v>
+      </c>
+      <c r="P57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q57">
+        <v>5.25</v>
+      </c>
+      <c r="R57">
+        <v>2.65</v>
+      </c>
+      <c r="S57">
+        <v>1.8</v>
+      </c>
+      <c r="T57">
+        <v>1.21</v>
+      </c>
+      <c r="U57">
+        <v>4</v>
+      </c>
+      <c r="V57">
+        <v>1.95</v>
+      </c>
+      <c r="W57">
+        <v>1.7</v>
+      </c>
+      <c r="X57">
+        <v>3.8</v>
+      </c>
+      <c r="Y57">
+        <v>1.22</v>
+      </c>
+      <c r="Z57">
+        <v>6.07</v>
+      </c>
+      <c r="AA57">
+        <v>5.4</v>
+      </c>
+      <c r="AB57">
+        <v>1.27</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>19</v>
+      </c>
+      <c r="AE57">
+        <v>1.08</v>
+      </c>
+      <c r="AF57">
+        <v>5.75</v>
+      </c>
+      <c r="AG57">
+        <v>1.37</v>
+      </c>
+      <c r="AH57">
+        <v>2.62</v>
+      </c>
+      <c r="AI57">
+        <v>1.57</v>
+      </c>
+      <c r="AJ57">
+        <v>2.25</v>
+      </c>
+      <c r="AK57">
+        <v>1.16</v>
+      </c>
+      <c r="AL57">
+        <v>1.16</v>
+      </c>
+      <c r="AM57">
+        <v>1.01</v>
+      </c>
+      <c r="AN57">
+        <v>1.2</v>
+      </c>
+      <c r="AO57">
+        <v>2.6</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>2.67</v>
+      </c>
+      <c r="AR57">
+        <v>1.43</v>
+      </c>
+      <c r="AS57">
+        <v>2.13</v>
+      </c>
+      <c r="AT57">
+        <v>3.56</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>12</v>
+      </c>
+      <c r="AW57">
+        <v>3</v>
+      </c>
+      <c r="AX57">
+        <v>13</v>
+      </c>
+      <c r="AY57">
+        <v>6</v>
+      </c>
+      <c r="AZ57">
+        <v>25</v>
+      </c>
+      <c r="BA57">
+        <v>2</v>
+      </c>
+      <c r="BB57">
+        <v>8</v>
+      </c>
+      <c r="BC57">
+        <v>10</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['14', '53']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -494,6 +497,9 @@
   </si>
   <si>
     <t>['43', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,7 +1326,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1401,7 +1407,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1526,7 +1532,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1732,7 +1738,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -1938,7 +1944,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2144,7 +2150,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2350,7 +2356,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2428,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2556,7 +2562,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2843,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3049,7 +3055,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3174,7 +3180,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3586,7 +3592,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3792,7 +3798,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3870,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.17</v>
@@ -3998,7 +4004,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4204,7 +4210,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4282,7 +4288,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>1.8</v>
@@ -4410,7 +4416,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4903,7 +4909,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ20">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR20">
         <v>2.45</v>
@@ -5028,7 +5034,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5109,7 +5115,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR21">
         <v>2.18</v>
@@ -5440,7 +5446,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5646,7 +5652,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5852,7 +5858,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6058,7 +6064,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6345,7 +6351,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR27">
         <v>1.38</v>
@@ -6470,7 +6476,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6676,7 +6682,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6754,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>2.67</v>
@@ -7294,7 +7300,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7372,10 +7378,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR32">
         <v>1.48</v>
@@ -7500,7 +7506,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7912,7 +7918,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -7993,7 +7999,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ35">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -8118,7 +8124,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8196,7 +8202,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8608,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.8</v>
@@ -8736,7 +8742,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8942,7 +8948,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9148,7 +9154,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9229,7 +9235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR41">
         <v>1.43</v>
@@ -9432,7 +9438,7 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9560,7 +9566,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9641,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR43">
         <v>2.31</v>
@@ -9766,7 +9772,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9972,7 +9978,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10178,7 +10184,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10384,7 +10390,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -11002,7 +11008,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11083,7 +11089,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.94</v>
@@ -11208,7 +11214,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11286,7 +11292,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11414,7 +11420,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11620,7 +11626,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -12238,7 +12244,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12444,7 +12450,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12600,6 +12606,418 @@
         <v>0</v>
       </c>
       <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7828514</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45787.35416666666</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="s">
+        <v>123</v>
+      </c>
+      <c r="P58" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q58">
+        <v>2.61</v>
+      </c>
+      <c r="R58">
+        <v>2.25</v>
+      </c>
+      <c r="S58">
+        <v>3.75</v>
+      </c>
+      <c r="T58">
+        <v>1.29</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.38</v>
+      </c>
+      <c r="W58">
+        <v>1.55</v>
+      </c>
+      <c r="X58">
+        <v>5.4</v>
+      </c>
+      <c r="Y58">
+        <v>1.09</v>
+      </c>
+      <c r="Z58">
+        <v>2.1</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>3</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>12</v>
+      </c>
+      <c r="AE58">
+        <v>1.15</v>
+      </c>
+      <c r="AF58">
+        <v>4.2</v>
+      </c>
+      <c r="AG58">
+        <v>1.6</v>
+      </c>
+      <c r="AH58">
+        <v>2.25</v>
+      </c>
+      <c r="AI58">
+        <v>1.47</v>
+      </c>
+      <c r="AJ58">
+        <v>2.4</v>
+      </c>
+      <c r="AK58">
+        <v>1.35</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.71</v>
+      </c>
+      <c r="AN58">
+        <v>1.2</v>
+      </c>
+      <c r="AO58">
+        <v>0.2</v>
+      </c>
+      <c r="AP58">
+        <v>1.5</v>
+      </c>
+      <c r="AQ58">
+        <v>0.17</v>
+      </c>
+      <c r="AR58">
+        <v>1.57</v>
+      </c>
+      <c r="AS58">
+        <v>1.41</v>
+      </c>
+      <c r="AT58">
+        <v>2.98</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>11</v>
+      </c>
+      <c r="AW58">
+        <v>8</v>
+      </c>
+      <c r="AX58">
+        <v>19</v>
+      </c>
+      <c r="AY58">
+        <v>12</v>
+      </c>
+      <c r="AZ58">
+        <v>30</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>7</v>
+      </c>
+      <c r="BC58">
+        <v>13</v>
+      </c>
+      <c r="BD58">
+        <v>0</v>
+      </c>
+      <c r="BE58">
+        <v>0</v>
+      </c>
+      <c r="BF58">
+        <v>0</v>
+      </c>
+      <c r="BG58">
+        <v>0</v>
+      </c>
+      <c r="BH58">
+        <v>0</v>
+      </c>
+      <c r="BI58">
+        <v>0</v>
+      </c>
+      <c r="BJ58">
+        <v>0</v>
+      </c>
+      <c r="BK58">
+        <v>0</v>
+      </c>
+      <c r="BL58">
+        <v>0</v>
+      </c>
+      <c r="BM58">
+        <v>0</v>
+      </c>
+      <c r="BN58">
+        <v>0</v>
+      </c>
+      <c r="BO58">
+        <v>0</v>
+      </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7828517</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F59">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>81</v>
+      </c>
+      <c r="P59" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q59">
+        <v>5</v>
+      </c>
+      <c r="R59">
+        <v>2.7</v>
+      </c>
+      <c r="S59">
+        <v>1.75</v>
+      </c>
+      <c r="T59">
+        <v>1.22</v>
+      </c>
+      <c r="U59">
+        <v>3.8</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>1.67</v>
+      </c>
+      <c r="X59">
+        <v>4</v>
+      </c>
+      <c r="Y59">
+        <v>1.2</v>
+      </c>
+      <c r="Z59">
+        <v>6.26</v>
+      </c>
+      <c r="AA59">
+        <v>4.57</v>
+      </c>
+      <c r="AB59">
+        <v>1.44</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>15.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.08</v>
+      </c>
+      <c r="AF59">
+        <v>5.3</v>
+      </c>
+      <c r="AG59">
+        <v>1.55</v>
+      </c>
+      <c r="AH59">
+        <v>2.32</v>
+      </c>
+      <c r="AI59">
+        <v>1.52</v>
+      </c>
+      <c r="AJ59">
+        <v>2.1</v>
+      </c>
+      <c r="AK59">
+        <v>1.17</v>
+      </c>
+      <c r="AL59">
+        <v>1.18</v>
+      </c>
+      <c r="AM59">
+        <v>1.1</v>
+      </c>
+      <c r="AN59">
+        <v>0.6</v>
+      </c>
+      <c r="AO59">
+        <v>2</v>
+      </c>
+      <c r="AP59">
+        <v>0.5</v>
+      </c>
+      <c r="AQ59">
+        <v>2.14</v>
+      </c>
+      <c r="AR59">
+        <v>1.1</v>
+      </c>
+      <c r="AS59">
+        <v>2.19</v>
+      </c>
+      <c r="AT59">
+        <v>3.29</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>13</v>
+      </c>
+      <c r="AY59">
+        <v>7</v>
+      </c>
+      <c r="AZ59">
+        <v>19</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>5</v>
+      </c>
+      <c r="BC59">
+        <v>7</v>
+      </c>
+      <c r="BD59">
+        <v>0</v>
+      </c>
+      <c r="BE59">
+        <v>0</v>
+      </c>
+      <c r="BF59">
+        <v>0</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>0</v>
+      </c>
+      <c r="BL59">
+        <v>0</v>
+      </c>
+      <c r="BM59">
+        <v>0</v>
+      </c>
+      <c r="BN59">
+        <v>0</v>
+      </c>
+      <c r="BO59">
+        <v>0</v>
+      </c>
+      <c r="BP59">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,12 @@
     <t>['14', '53']</t>
   </si>
   <si>
+    <t>['5', '11']</t>
+  </si>
+  <si>
+    <t>['10', '46', '72', '85']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -500,6 +506,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1326,7 +1338,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1532,7 +1544,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1738,7 +1750,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1819,7 +1831,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1944,7 +1956,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2150,7 +2162,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2231,7 +2243,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>1.43</v>
@@ -2356,7 +2368,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2562,7 +2574,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2640,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -3180,7 +3192,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3464,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.59</v>
@@ -3592,7 +3604,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3798,7 +3810,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4004,7 +4016,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4210,7 +4222,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4291,7 +4303,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.11</v>
@@ -4416,7 +4428,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5034,7 +5046,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5112,7 +5124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ21">
         <v>2.14</v>
@@ -5446,7 +5458,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5524,7 +5536,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5652,7 +5664,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5858,7 +5870,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6064,7 +6076,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6348,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
         <v>0.17</v>
@@ -6476,7 +6488,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6554,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6682,7 +6694,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7175,7 +7187,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>2.69</v>
@@ -7300,7 +7312,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7506,7 +7518,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7587,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.28</v>
@@ -7790,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ34">
         <v>2.67</v>
@@ -7918,7 +7930,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8124,7 +8136,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8411,7 +8423,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.88</v>
@@ -8617,7 +8629,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.47</v>
@@ -8742,7 +8754,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8948,7 +8960,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9154,7 +9166,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9232,7 +9244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>2.14</v>
@@ -9566,7 +9578,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9772,7 +9784,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9978,7 +9990,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10184,7 +10196,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10390,7 +10402,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10471,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.51</v>
@@ -10677,7 +10689,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.68</v>
@@ -10880,7 +10892,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11008,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11214,7 +11226,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11420,7 +11432,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11626,7 +11638,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11910,7 +11922,7 @@
         <v>0.8</v>
       </c>
       <c r="AP54">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12244,7 +12256,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12450,7 +12462,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12862,7 +12874,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13018,6 +13030,418 @@
         <v>0</v>
       </c>
       <c r="BP59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7828516</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45788.35416666666</v>
+      </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>78</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>124</v>
+      </c>
+      <c r="P60" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q60">
+        <v>2.25</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>5.3</v>
+      </c>
+      <c r="T60">
+        <v>1.35</v>
+      </c>
+      <c r="U60">
+        <v>2.97</v>
+      </c>
+      <c r="V60">
+        <v>2.5</v>
+      </c>
+      <c r="W60">
+        <v>1.42</v>
+      </c>
+      <c r="X60">
+        <v>6.4</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>1.55</v>
+      </c>
+      <c r="AA60">
+        <v>3.74</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>9.75</v>
+      </c>
+      <c r="AE60">
+        <v>1.23</v>
+      </c>
+      <c r="AF60">
+        <v>3.75</v>
+      </c>
+      <c r="AG60">
+        <v>1.85</v>
+      </c>
+      <c r="AH60">
+        <v>1.85</v>
+      </c>
+      <c r="AI60">
+        <v>1.84</v>
+      </c>
+      <c r="AJ60">
+        <v>1.92</v>
+      </c>
+      <c r="AK60">
+        <v>1.17</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>2.15</v>
+      </c>
+      <c r="AN60">
+        <v>2.6</v>
+      </c>
+      <c r="AO60">
+        <v>1.2</v>
+      </c>
+      <c r="AP60">
+        <v>2.67</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>2.68</v>
+      </c>
+      <c r="AS60">
+        <v>1.95</v>
+      </c>
+      <c r="AT60">
+        <v>4.63</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>10</v>
+      </c>
+      <c r="AY60">
+        <v>5</v>
+      </c>
+      <c r="AZ60">
+        <v>16</v>
+      </c>
+      <c r="BA60">
+        <v>4</v>
+      </c>
+      <c r="BB60">
+        <v>9</v>
+      </c>
+      <c r="BC60">
+        <v>13</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7828515</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45788.45833333334</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q61">
+        <v>2.27</v>
+      </c>
+      <c r="R61">
+        <v>2.13</v>
+      </c>
+      <c r="S61">
+        <v>4.75</v>
+      </c>
+      <c r="T61">
+        <v>1.38</v>
+      </c>
+      <c r="U61">
+        <v>2.86</v>
+      </c>
+      <c r="V61">
+        <v>2.8</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>6.25</v>
+      </c>
+      <c r="Y61">
+        <v>1.05</v>
+      </c>
+      <c r="Z61">
+        <v>1.74</v>
+      </c>
+      <c r="AA61">
+        <v>3.73</v>
+      </c>
+      <c r="AB61">
+        <v>3.88</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE61">
+        <v>1.25</v>
+      </c>
+      <c r="AF61">
+        <v>3.22</v>
+      </c>
+      <c r="AG61">
+        <v>1.88</v>
+      </c>
+      <c r="AH61">
+        <v>1.82</v>
+      </c>
+      <c r="AI61">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61">
+        <v>1.95</v>
+      </c>
+      <c r="AK61">
+        <v>1.24</v>
+      </c>
+      <c r="AL61">
+        <v>1.18</v>
+      </c>
+      <c r="AM61">
+        <v>2.07</v>
+      </c>
+      <c r="AN61">
+        <v>1.5</v>
+      </c>
+      <c r="AO61">
+        <v>1.8</v>
+      </c>
+      <c r="AP61">
+        <v>1.71</v>
+      </c>
+      <c r="AQ61">
+        <v>1.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.64</v>
+      </c>
+      <c r="AS61">
+        <v>1.53</v>
+      </c>
+      <c r="AT61">
+        <v>3.17</v>
+      </c>
+      <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>10</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
+        <v>13</v>
+      </c>
+      <c r="BA61">
+        <v>2</v>
+      </c>
+      <c r="BB61">
+        <v>7</v>
+      </c>
+      <c r="BC61">
+        <v>9</v>
+      </c>
+      <c r="BD61">
+        <v>0</v>
+      </c>
+      <c r="BE61">
+        <v>0</v>
+      </c>
+      <c r="BF61">
+        <v>0</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>0</v>
+      </c>
+      <c r="BL61">
+        <v>0</v>
+      </c>
+      <c r="BM61">
+        <v>0</v>
+      </c>
+      <c r="BN61">
+        <v>0</v>
+      </c>
+      <c r="BO61">
+        <v>0</v>
+      </c>
+      <c r="BP61">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,12 @@
     <t>['10', '46', '72', '85']</t>
   </si>
   <si>
+    <t>['40', '49']</t>
+  </si>
+  <si>
+    <t>['28', '72']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
   </si>
   <si>
     <t>['45+2', '90+4']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['31', '55']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1225,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1338,7 +1350,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1416,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ3">
         <v>2.14</v>
@@ -1544,7 +1556,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1750,7 +1762,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1956,7 +1968,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2037,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2162,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2368,7 +2380,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2574,7 +2586,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3064,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ11">
         <v>2.14</v>
@@ -3192,7 +3204,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3270,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3604,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3810,7 +3822,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3891,7 +3903,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4016,7 +4028,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4097,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4222,7 +4234,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4428,7 +4440,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4918,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ20">
         <v>0.17</v>
@@ -5046,7 +5058,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5330,10 +5342,10 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR22">
         <v>3.01</v>
@@ -5458,7 +5470,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5664,7 +5676,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5870,7 +5882,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5948,10 +5960,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>0.71</v>
@@ -6076,7 +6088,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6488,7 +6500,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6694,7 +6706,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6981,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>2.7</v>
@@ -7184,7 +7196,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7312,7 +7324,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7518,7 +7530,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7930,7 +7942,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8008,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ35">
         <v>0.17</v>
@@ -8136,7 +8148,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8754,7 +8766,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8835,7 +8847,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -8960,7 +8972,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9166,7 +9178,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9578,7 +9590,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9784,7 +9796,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9865,7 +9877,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -9990,7 +10002,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10068,7 +10080,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10196,7 +10208,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10274,7 +10286,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ46">
         <v>2</v>
@@ -10402,7 +10414,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10895,7 +10907,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR49">
         <v>2.61</v>
@@ -11020,7 +11032,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11226,7 +11238,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11432,7 +11444,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11510,7 +11522,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ52">
         <v>2.67</v>
@@ -11638,7 +11650,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11719,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -11925,7 +11937,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12256,7 +12268,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12334,7 +12346,7 @@
         <v>0.6</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -12462,7 +12474,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12874,7 +12886,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13080,7 +13092,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13286,7 +13298,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13442,6 +13454,418 @@
         <v>0</v>
       </c>
       <c r="BP61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7828518</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45794.35416666666</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P62" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q62">
+        <v>2.4</v>
+      </c>
+      <c r="R62">
+        <v>2.18</v>
+      </c>
+      <c r="S62">
+        <v>3.64</v>
+      </c>
+      <c r="T62">
+        <v>1.3</v>
+      </c>
+      <c r="U62">
+        <v>3.2</v>
+      </c>
+      <c r="V62">
+        <v>2.57</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>1.95</v>
+      </c>
+      <c r="AA62">
+        <v>3.45</v>
+      </c>
+      <c r="AB62">
+        <v>3.25</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>12</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>3.75</v>
+      </c>
+      <c r="AG62">
+        <v>1.73</v>
+      </c>
+      <c r="AH62">
+        <v>2</v>
+      </c>
+      <c r="AI62">
+        <v>1.55</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.18</v>
+      </c>
+      <c r="AL62">
+        <v>1.21</v>
+      </c>
+      <c r="AM62">
+        <v>1.83</v>
+      </c>
+      <c r="AN62">
+        <v>0.33</v>
+      </c>
+      <c r="AO62">
+        <v>0.67</v>
+      </c>
+      <c r="AP62">
+        <v>0.71</v>
+      </c>
+      <c r="AQ62">
+        <v>0.57</v>
+      </c>
+      <c r="AR62">
+        <v>1.18</v>
+      </c>
+      <c r="AS62">
+        <v>1.33</v>
+      </c>
+      <c r="AT62">
+        <v>2.51</v>
+      </c>
+      <c r="AU62">
+        <v>12</v>
+      </c>
+      <c r="AV62">
+        <v>4</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>17</v>
+      </c>
+      <c r="AZ62">
+        <v>5</v>
+      </c>
+      <c r="BA62">
+        <v>10</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>16</v>
+      </c>
+      <c r="BD62">
+        <v>0</v>
+      </c>
+      <c r="BE62">
+        <v>0</v>
+      </c>
+      <c r="BF62">
+        <v>0</v>
+      </c>
+      <c r="BG62">
+        <v>0</v>
+      </c>
+      <c r="BH62">
+        <v>0</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>0</v>
+      </c>
+      <c r="BK62">
+        <v>0</v>
+      </c>
+      <c r="BL62">
+        <v>0</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7828519</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45794.45833333334</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q63">
+        <v>1.64</v>
+      </c>
+      <c r="R63">
+        <v>2.77</v>
+      </c>
+      <c r="S63">
+        <v>7</v>
+      </c>
+      <c r="T63">
+        <v>1.18</v>
+      </c>
+      <c r="U63">
+        <v>4.2</v>
+      </c>
+      <c r="V63">
+        <v>2.04</v>
+      </c>
+      <c r="W63">
+        <v>1.72</v>
+      </c>
+      <c r="X63">
+        <v>3.9</v>
+      </c>
+      <c r="Y63">
+        <v>1.18</v>
+      </c>
+      <c r="Z63">
+        <v>1.27</v>
+      </c>
+      <c r="AA63">
+        <v>5.5</v>
+      </c>
+      <c r="AB63">
+        <v>6.7</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>21</v>
+      </c>
+      <c r="AE63">
+        <v>1.08</v>
+      </c>
+      <c r="AF63">
+        <v>5.6</v>
+      </c>
+      <c r="AG63">
+        <v>1.37</v>
+      </c>
+      <c r="AH63">
+        <v>2.85</v>
+      </c>
+      <c r="AI63">
+        <v>1.69</v>
+      </c>
+      <c r="AJ63">
+        <v>2.05</v>
+      </c>
+      <c r="AK63">
+        <v>1.1</v>
+      </c>
+      <c r="AL63">
+        <v>1.1</v>
+      </c>
+      <c r="AM63">
+        <v>3.7</v>
+      </c>
+      <c r="AN63">
+        <v>2.67</v>
+      </c>
+      <c r="AO63">
+        <v>1.17</v>
+      </c>
+      <c r="AP63">
+        <v>2.43</v>
+      </c>
+      <c r="AQ63">
+        <v>1.14</v>
+      </c>
+      <c r="AR63">
+        <v>2.27</v>
+      </c>
+      <c r="AS63">
+        <v>1.31</v>
+      </c>
+      <c r="AT63">
+        <v>3.58</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>3</v>
+      </c>
+      <c r="AY63">
+        <v>16</v>
+      </c>
+      <c r="AZ63">
+        <v>6</v>
+      </c>
+      <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
+        <v>1</v>
+      </c>
+      <c r="BC63">
+        <v>8</v>
+      </c>
+      <c r="BD63">
+        <v>0</v>
+      </c>
+      <c r="BE63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>0</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
+      <c r="BJ63">
+        <v>0</v>
+      </c>
+      <c r="BK63">
+        <v>0</v>
+      </c>
+      <c r="BL63">
+        <v>0</v>
+      </c>
+      <c r="BM63">
+        <v>0</v>
+      </c>
+      <c r="BN63">
+        <v>0</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>['28', '72']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
   <si>
     <t>['34', '59', '86']</t>
@@ -885,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1350,7 +1353,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1556,7 +1559,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1634,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1762,7 +1765,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1968,7 +1971,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2174,7 +2177,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2252,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2380,7 +2383,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2461,7 +2464,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2586,7 +2589,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3204,7 +3207,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3285,7 +3288,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0.79</v>
@@ -3616,7 +3619,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3822,7 +3825,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4028,7 +4031,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4234,7 +4237,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4440,7 +4443,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4724,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -5058,7 +5061,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5470,7 +5473,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5551,7 +5554,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -5676,7 +5679,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5882,7 +5885,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6088,7 +6091,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6500,7 +6503,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6706,7 +6709,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7324,7 +7327,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7530,7 +7533,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7942,7 +7945,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8148,7 +8151,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8432,7 +8435,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8766,7 +8769,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8972,7 +8975,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9053,7 +9056,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.8</v>
@@ -9178,7 +9181,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9590,7 +9593,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9796,7 +9799,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9874,7 +9877,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10002,7 +10005,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10208,7 +10211,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10289,7 +10292,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10414,7 +10417,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -11032,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11110,7 +11113,7 @@
         <v>1.8</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ50">
         <v>2.14</v>
@@ -11238,7 +11241,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11444,7 +11447,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11650,7 +11653,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -12143,7 +12146,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AR55">
         <v>2.3</v>
@@ -12268,7 +12271,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12474,7 +12477,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12886,7 +12889,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13092,7 +13095,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13298,7 +13301,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13504,7 +13507,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13710,7 +13713,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>1.64</v>
@@ -13866,6 +13869,212 @@
         <v>0</v>
       </c>
       <c r="BP63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7828520</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45795.35416666666</v>
+      </c>
+      <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>70</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q64">
+        <v>3.95</v>
+      </c>
+      <c r="R64">
+        <v>2.16</v>
+      </c>
+      <c r="S64">
+        <v>2.7</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.4</v>
+      </c>
+      <c r="W64">
+        <v>1.42</v>
+      </c>
+      <c r="X64">
+        <v>6.1</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>3.2</v>
+      </c>
+      <c r="AA64">
+        <v>3.3</v>
+      </c>
+      <c r="AB64">
+        <v>1.95</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>11</v>
+      </c>
+      <c r="AE64">
+        <v>1.25</v>
+      </c>
+      <c r="AF64">
+        <v>3.8</v>
+      </c>
+      <c r="AG64">
+        <v>1.8</v>
+      </c>
+      <c r="AH64">
+        <v>1.95</v>
+      </c>
+      <c r="AI64">
+        <v>1.7</v>
+      </c>
+      <c r="AJ64">
+        <v>2.12</v>
+      </c>
+      <c r="AK64">
+        <v>1.23</v>
+      </c>
+      <c r="AL64">
+        <v>1.26</v>
+      </c>
+      <c r="AM64">
+        <v>1.24</v>
+      </c>
+      <c r="AN64">
+        <v>1.67</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>1.86</v>
+      </c>
+      <c r="AQ64">
+        <v>1.71</v>
+      </c>
+      <c r="AR64">
+        <v>1.9</v>
+      </c>
+      <c r="AS64">
+        <v>2.45</v>
+      </c>
+      <c r="AT64">
+        <v>4.35</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>9</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64">
+        <v>14</v>
+      </c>
+      <c r="AY64">
+        <v>5</v>
+      </c>
+      <c r="AZ64">
+        <v>23</v>
+      </c>
+      <c r="BA64">
+        <v>2</v>
+      </c>
+      <c r="BB64">
+        <v>9</v>
+      </c>
+      <c r="BC64">
+        <v>11</v>
+      </c>
+      <c r="BD64">
+        <v>0</v>
+      </c>
+      <c r="BE64">
+        <v>0</v>
+      </c>
+      <c r="BF64">
+        <v>0</v>
+      </c>
+      <c r="BG64">
+        <v>0</v>
+      </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
+      <c r="BJ64">
+        <v>0</v>
+      </c>
+      <c r="BK64">
+        <v>0</v>
+      </c>
+      <c r="BL64">
+        <v>0</v>
+      </c>
+      <c r="BM64">
+        <v>0</v>
+      </c>
+      <c r="BN64">
+        <v>0</v>
+      </c>
+      <c r="BO64">
+        <v>0</v>
+      </c>
+      <c r="BP64">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,12 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['19', '21', '62', '77']</t>
+  </si>
+  <si>
+    <t>['65', '77']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -527,6 +533,9 @@
   </si>
   <si>
     <t>['31', '55']</t>
+  </si>
+  <si>
+    <t>['3', '16', '29', '32', '39']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1353,7 +1362,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1559,7 +1568,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1640,7 +1649,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1765,7 +1774,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1971,7 +1980,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2049,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ6">
         <v>0.57</v>
@@ -2177,7 +2186,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2383,7 +2392,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2589,7 +2598,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2670,7 +2679,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3207,7 +3216,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3619,7 +3628,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3697,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ14">
         <v>2.67</v>
@@ -3825,7 +3834,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4031,7 +4040,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4109,7 +4118,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16">
         <v>0.57</v>
@@ -4237,7 +4246,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4443,7 +4452,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4524,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4730,7 +4739,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR19">
         <v>1.56</v>
@@ -5061,7 +5070,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5473,7 +5482,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5679,7 +5688,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5757,7 +5766,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ24">
         <v>2.67</v>
@@ -5885,7 +5894,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6091,7 +6100,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6169,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
         <v>1.15</v>
@@ -6503,7 +6512,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6584,7 +6593,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR28">
         <v>2.38</v>
@@ -6709,7 +6718,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6993,7 +7002,7 @@
         <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ30">
         <v>1.14</v>
@@ -7327,7 +7336,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7533,7 +7542,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7945,7 +7954,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8151,7 +8160,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8232,7 +8241,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8769,7 +8778,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8975,7 +8984,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9053,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ40">
         <v>1.71</v>
@@ -9181,7 +9190,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9468,7 +9477,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9593,7 +9602,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9671,7 +9680,7 @@
         <v>0.25</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43">
         <v>0.17</v>
@@ -9799,7 +9808,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -10005,7 +10014,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10086,7 +10095,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10211,7 +10220,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10417,7 +10426,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10701,7 +10710,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11035,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11241,7 +11250,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11322,7 +11331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -11447,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11653,7 +11662,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11731,7 +11740,7 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -12143,7 +12152,7 @@
         <v>2.4</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ55">
         <v>1.71</v>
@@ -12271,7 +12280,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12352,7 +12361,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR56">
         <v>2.2</v>
@@ -12477,7 +12486,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12889,7 +12898,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13095,7 +13104,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13301,7 +13310,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13507,7 +13516,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13713,7 +13722,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>1.64</v>
@@ -14075,6 +14084,418 @@
         <v>0</v>
       </c>
       <c r="BP64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7828522</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q65">
+        <v>1.63</v>
+      </c>
+      <c r="R65">
+        <v>2.76</v>
+      </c>
+      <c r="S65">
+        <v>7.2</v>
+      </c>
+      <c r="T65">
+        <v>1.18</v>
+      </c>
+      <c r="U65">
+        <v>4.1</v>
+      </c>
+      <c r="V65">
+        <v>2.03</v>
+      </c>
+      <c r="W65">
+        <v>1.78</v>
+      </c>
+      <c r="X65">
+        <v>3.9</v>
+      </c>
+      <c r="Y65">
+        <v>1.21</v>
+      </c>
+      <c r="Z65">
+        <v>1.22</v>
+      </c>
+      <c r="AA65">
+        <v>5.4</v>
+      </c>
+      <c r="AB65">
+        <v>8.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>15.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.07</v>
+      </c>
+      <c r="AF65">
+        <v>6.1</v>
+      </c>
+      <c r="AG65">
+        <v>1.35</v>
+      </c>
+      <c r="AH65">
+        <v>2.95</v>
+      </c>
+      <c r="AI65">
+        <v>1.73</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>1.03</v>
+      </c>
+      <c r="AL65">
+        <v>1.09</v>
+      </c>
+      <c r="AM65">
+        <v>3.8</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>0.67</v>
+      </c>
+      <c r="AP65">
+        <v>2.17</v>
+      </c>
+      <c r="AQ65">
+        <v>0.57</v>
+      </c>
+      <c r="AR65">
+        <v>2.11</v>
+      </c>
+      <c r="AS65">
+        <v>1.02</v>
+      </c>
+      <c r="AT65">
+        <v>3.13</v>
+      </c>
+      <c r="AU65">
+        <v>10</v>
+      </c>
+      <c r="AV65">
+        <v>2</v>
+      </c>
+      <c r="AW65">
+        <v>13</v>
+      </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
+      <c r="AY65">
+        <v>23</v>
+      </c>
+      <c r="AZ65">
+        <v>5</v>
+      </c>
+      <c r="BA65">
+        <v>7</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>9</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7828521</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45796.54166666666</v>
+      </c>
+      <c r="F66">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>5</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q66">
+        <v>4.35</v>
+      </c>
+      <c r="R66">
+        <v>2.31</v>
+      </c>
+      <c r="S66">
+        <v>2.11</v>
+      </c>
+      <c r="T66">
+        <v>1.23</v>
+      </c>
+      <c r="U66">
+        <v>3.4</v>
+      </c>
+      <c r="V66">
+        <v>2.3</v>
+      </c>
+      <c r="W66">
+        <v>1.55</v>
+      </c>
+      <c r="X66">
+        <v>4.6</v>
+      </c>
+      <c r="Y66">
+        <v>1.15</v>
+      </c>
+      <c r="Z66">
+        <v>4.05</v>
+      </c>
+      <c r="AA66">
+        <v>3.9</v>
+      </c>
+      <c r="AB66">
+        <v>1.62</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.13</v>
+      </c>
+      <c r="AF66">
+        <v>4.33</v>
+      </c>
+      <c r="AG66">
+        <v>1.62</v>
+      </c>
+      <c r="AH66">
+        <v>2.2</v>
+      </c>
+      <c r="AI66">
+        <v>1.55</v>
+      </c>
+      <c r="AJ66">
+        <v>2.27</v>
+      </c>
+      <c r="AK66">
+        <v>1.25</v>
+      </c>
+      <c r="AL66">
+        <v>1.15</v>
+      </c>
+      <c r="AM66">
+        <v>1.18</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
+        <v>2</v>
+      </c>
+      <c r="AP66">
+        <v>0.86</v>
+      </c>
+      <c r="AQ66">
+        <v>2.17</v>
+      </c>
+      <c r="AR66">
+        <v>1.52</v>
+      </c>
+      <c r="AS66">
+        <v>1.9</v>
+      </c>
+      <c r="AT66">
+        <v>3.42</v>
+      </c>
+      <c r="AU66">
+        <v>6</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>11</v>
+      </c>
+      <c r="AY66">
+        <v>10</v>
+      </c>
+      <c r="AZ66">
+        <v>18</v>
+      </c>
+      <c r="BA66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>6</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['65', '77']</t>
   </si>
   <si>
+    <t>['27', '31', '76', '87']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['19', '38', '49', '90+1']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -536,6 +545,12 @@
   </si>
   <si>
     <t>['3', '16', '29', '32', '39']</t>
+  </si>
+  <si>
+    <t>['34', '60', '90']</t>
+  </si>
+  <si>
+    <t>['74', '79']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1252,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1362,7 +1377,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1568,7 +1583,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1774,7 +1789,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1852,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1980,7 +1995,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2186,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2392,7 +2407,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2470,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
         <v>1.71</v>
@@ -2598,7 +2613,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2676,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ9">
         <v>0.57</v>
@@ -2885,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3216,7 +3231,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3500,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3628,7 +3643,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3709,7 +3724,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ14">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR14">
         <v>1.42</v>
@@ -3834,7 +3849,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3912,10 +3927,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4040,7 +4055,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4246,7 +4261,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4324,7 +4339,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4452,7 +4467,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4945,7 +4960,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ20">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR20">
         <v>2.45</v>
@@ -5070,7 +5085,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5482,7 +5497,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5560,7 +5575,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>1.71</v>
@@ -5688,7 +5703,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5769,7 +5784,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ24">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR24">
         <v>3.56</v>
@@ -5894,7 +5909,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5975,7 +5990,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0.71</v>
@@ -6100,7 +6115,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6384,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ27">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR27">
         <v>1.38</v>
@@ -6512,7 +6527,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6718,7 +6733,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6796,10 +6811,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ29">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR29">
         <v>1.01</v>
@@ -7005,7 +7020,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>2.7</v>
@@ -7336,7 +7351,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7414,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>2.14</v>
@@ -7542,7 +7557,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7829,7 +7844,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ34">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR34">
         <v>2.81</v>
@@ -7954,7 +7969,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8035,7 +8050,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ35">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR35">
         <v>0.88</v>
@@ -8160,7 +8175,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8238,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ36">
         <v>2.17</v>
@@ -8650,7 +8665,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8778,7 +8793,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8984,7 +8999,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9190,7 +9205,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9268,7 +9283,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>2.14</v>
@@ -9474,7 +9489,7 @@
         <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42">
         <v>0.57</v>
@@ -9602,7 +9617,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9683,7 +9698,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ43">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR43">
         <v>2.31</v>
@@ -9808,7 +9823,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9889,7 +9904,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.77</v>
@@ -10014,7 +10029,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10220,7 +10235,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10426,7 +10441,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -11044,7 +11059,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11250,7 +11265,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11328,7 +11343,7 @@
         <v>2.5</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>2.17</v>
@@ -11456,7 +11471,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11537,7 +11552,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ52">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR52">
         <v>1.16</v>
@@ -11662,7 +11677,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11743,7 +11758,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.56</v>
@@ -11946,7 +11961,7 @@
         <v>0.8</v>
       </c>
       <c r="AP54">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -12280,7 +12295,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12486,7 +12501,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12567,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR57">
         <v>1.43</v>
@@ -12770,10 +12785,10 @@
         <v>0.2</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR58">
         <v>1.57</v>
@@ -12898,7 +12913,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -12976,7 +12991,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59">
         <v>2.14</v>
@@ -13104,7 +13119,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13310,7 +13325,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13388,7 +13403,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13516,7 +13531,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13722,7 +13737,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>1.64</v>
@@ -13803,7 +13818,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>2.27</v>
@@ -14340,7 +14355,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>4.35</v>
@@ -14496,6 +14511,624 @@
         <v>0</v>
       </c>
       <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7828523</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45804.5</v>
+      </c>
+      <c r="F67">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s">
+        <v>74</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P67" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q67">
+        <v>2.6</v>
+      </c>
+      <c r="R67">
+        <v>2.36</v>
+      </c>
+      <c r="S67">
+        <v>3.5</v>
+      </c>
+      <c r="T67">
+        <v>1.23</v>
+      </c>
+      <c r="U67">
+        <v>3.8</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>1.67</v>
+      </c>
+      <c r="X67">
+        <v>4.1</v>
+      </c>
+      <c r="Y67">
+        <v>1.17</v>
+      </c>
+      <c r="Z67">
+        <v>2.09</v>
+      </c>
+      <c r="AA67">
+        <v>3.6</v>
+      </c>
+      <c r="AB67">
+        <v>2.87</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>17</v>
+      </c>
+      <c r="AE67">
+        <v>1.09</v>
+      </c>
+      <c r="AF67">
+        <v>5.3</v>
+      </c>
+      <c r="AG67">
+        <v>1.5</v>
+      </c>
+      <c r="AH67">
+        <v>2.5</v>
+      </c>
+      <c r="AI67">
+        <v>1.4</v>
+      </c>
+      <c r="AJ67">
+        <v>2.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.33</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
+        <v>1.67</v>
+      </c>
+      <c r="AN67">
+        <v>0.5</v>
+      </c>
+      <c r="AO67">
+        <v>0.17</v>
+      </c>
+      <c r="AP67">
+        <v>0.86</v>
+      </c>
+      <c r="AQ67">
+        <v>0.14</v>
+      </c>
+      <c r="AR67">
+        <v>1.07</v>
+      </c>
+      <c r="AS67">
+        <v>1.69</v>
+      </c>
+      <c r="AT67">
+        <v>2.76</v>
+      </c>
+      <c r="AU67">
+        <v>13</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
+        <v>13</v>
+      </c>
+      <c r="AX67">
+        <v>7</v>
+      </c>
+      <c r="AY67">
+        <v>26</v>
+      </c>
+      <c r="AZ67">
+        <v>9</v>
+      </c>
+      <c r="BA67">
+        <v>8</v>
+      </c>
+      <c r="BB67">
+        <v>2</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7828524</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45804.5</v>
+      </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>132</v>
+      </c>
+      <c r="P68" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q68">
+        <v>9</v>
+      </c>
+      <c r="R68">
+        <v>3</v>
+      </c>
+      <c r="S68">
+        <v>1.4</v>
+      </c>
+      <c r="T68">
+        <v>1.21</v>
+      </c>
+      <c r="U68">
+        <v>3.74</v>
+      </c>
+      <c r="V68">
+        <v>1.93</v>
+      </c>
+      <c r="W68">
+        <v>1.69</v>
+      </c>
+      <c r="X68">
+        <v>4.33</v>
+      </c>
+      <c r="Y68">
+        <v>1.15</v>
+      </c>
+      <c r="Z68">
+        <v>11.56</v>
+      </c>
+      <c r="AA68">
+        <v>6</v>
+      </c>
+      <c r="AB68">
+        <v>1.27</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>21</v>
+      </c>
+      <c r="AE68">
+        <v>1.11</v>
+      </c>
+      <c r="AF68">
+        <v>6</v>
+      </c>
+      <c r="AG68">
+        <v>1.38</v>
+      </c>
+      <c r="AH68">
+        <v>2.8</v>
+      </c>
+      <c r="AI68">
+        <v>1.83</v>
+      </c>
+      <c r="AJ68">
+        <v>1.91</v>
+      </c>
+      <c r="AK68">
+        <v>1.13</v>
+      </c>
+      <c r="AL68">
+        <v>1.15</v>
+      </c>
+      <c r="AM68">
+        <v>1.04</v>
+      </c>
+      <c r="AN68">
+        <v>1.5</v>
+      </c>
+      <c r="AO68">
+        <v>2.67</v>
+      </c>
+      <c r="AP68">
+        <v>1.29</v>
+      </c>
+      <c r="AQ68">
+        <v>2.71</v>
+      </c>
+      <c r="AR68">
+        <v>1.52</v>
+      </c>
+      <c r="AS68">
+        <v>2.25</v>
+      </c>
+      <c r="AT68">
+        <v>3.77</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>7</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>9</v>
+      </c>
+      <c r="AZ68">
+        <v>11</v>
+      </c>
+      <c r="BA68">
+        <v>2</v>
+      </c>
+      <c r="BB68">
+        <v>2</v>
+      </c>
+      <c r="BC68">
+        <v>4</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7828525</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45804.54166666666</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>6</v>
+      </c>
+      <c r="O69" t="s">
+        <v>133</v>
+      </c>
+      <c r="P69" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q69">
+        <v>1.91</v>
+      </c>
+      <c r="R69">
+        <v>2.55</v>
+      </c>
+      <c r="S69">
+        <v>5.75</v>
+      </c>
+      <c r="T69">
+        <v>1.22</v>
+      </c>
+      <c r="U69">
+        <v>3.6</v>
+      </c>
+      <c r="V69">
+        <v>2.15</v>
+      </c>
+      <c r="W69">
+        <v>1.6</v>
+      </c>
+      <c r="X69">
+        <v>5.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.14</v>
+      </c>
+      <c r="Z69">
+        <v>1.38</v>
+      </c>
+      <c r="AA69">
+        <v>4.5</v>
+      </c>
+      <c r="AB69">
+        <v>5.7</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>15</v>
+      </c>
+      <c r="AE69">
+        <v>1.17</v>
+      </c>
+      <c r="AF69">
+        <v>4.9</v>
+      </c>
+      <c r="AG69">
+        <v>1.57</v>
+      </c>
+      <c r="AH69">
+        <v>2.3</v>
+      </c>
+      <c r="AI69">
+        <v>1.62</v>
+      </c>
+      <c r="AJ69">
+        <v>2.1</v>
+      </c>
+      <c r="AK69">
+        <v>1.22</v>
+      </c>
+      <c r="AL69">
+        <v>1.21</v>
+      </c>
+      <c r="AM69">
+        <v>2.8</v>
+      </c>
+      <c r="AN69">
+        <v>1.71</v>
+      </c>
+      <c r="AO69">
+        <v>1.14</v>
+      </c>
+      <c r="AP69">
+        <v>1.88</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1.66</v>
+      </c>
+      <c r="AS69">
+        <v>1.27</v>
+      </c>
+      <c r="AT69">
+        <v>2.93</v>
+      </c>
+      <c r="AU69">
+        <v>12</v>
+      </c>
+      <c r="AV69">
+        <v>6</v>
+      </c>
+      <c r="AW69">
+        <v>14</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>26</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>2</v>
+      </c>
+      <c r="BC69">
+        <v>7</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['19', '38', '49', '90+1']</t>
   </si>
   <si>
+    <t>['58', '62']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -551,6 +554,12 @@
   </si>
   <si>
     <t>['74', '79']</t>
+  </si>
+  <si>
+    <t>['53', '66']</t>
+  </si>
+  <si>
+    <t>['15', '79']</t>
   </si>
 </sst>
 </file>
@@ -912,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1377,7 +1386,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1583,7 +1592,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1789,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1870,7 +1879,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1995,7 +2004,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2201,7 +2210,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2282,7 +2291,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>1.43</v>
@@ -2407,7 +2416,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2613,7 +2622,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3231,7 +3240,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3518,7 +3527,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR13">
         <v>1.59</v>
@@ -3643,7 +3652,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3849,7 +3858,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4055,7 +4064,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4133,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
         <v>0.57</v>
@@ -4261,7 +4270,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4342,7 +4351,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>1.11</v>
@@ -4467,7 +4476,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -5085,7 +5094,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5163,7 +5172,7 @@
         <v>1.5</v>
       </c>
       <c r="AP21">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ21">
         <v>2.14</v>
@@ -5497,7 +5506,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5703,7 +5712,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5781,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
         <v>2.71</v>
@@ -5909,7 +5918,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6115,7 +6124,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6527,7 +6536,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6605,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ28">
         <v>0.57</v>
@@ -6733,7 +6742,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7017,7 +7026,7 @@
         <v>1.33</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7226,7 +7235,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>2.69</v>
@@ -7351,7 +7360,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7557,7 +7566,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7638,7 +7647,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>1.28</v>
@@ -7841,7 +7850,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ34">
         <v>2.71</v>
@@ -7969,7 +7978,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8175,7 +8184,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8462,7 +8471,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
         <v>1.88</v>
@@ -8668,7 +8677,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.47</v>
@@ -8793,7 +8802,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8999,7 +9008,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9205,7 +9214,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9617,7 +9626,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9695,7 +9704,7 @@
         <v>0.25</v>
       </c>
       <c r="AP43">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
         <v>0.14</v>
@@ -9823,7 +9832,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -10029,7 +10038,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10235,7 +10244,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10441,7 +10450,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10522,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR47">
         <v>1.51</v>
@@ -10728,7 +10737,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR48">
         <v>1.68</v>
@@ -10931,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ49">
         <v>0.57</v>
@@ -11059,7 +11068,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11265,7 +11274,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11471,7 +11480,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11677,7 +11686,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -12167,7 +12176,7 @@
         <v>2.4</v>
       </c>
       <c r="AP55">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ55">
         <v>1.71</v>
@@ -12295,7 +12304,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12501,7 +12510,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12913,7 +12922,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13119,7 +13128,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13197,10 +13206,10 @@
         <v>1.2</v>
       </c>
       <c r="AP60">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR60">
         <v>2.68</v>
@@ -13325,7 +13334,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13406,7 +13415,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR61">
         <v>1.64</v>
@@ -13531,7 +13540,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13737,7 +13746,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>1.64</v>
@@ -14227,7 +14236,7 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ65">
         <v>0.57</v>
@@ -14355,7 +14364,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>4.35</v>
@@ -14767,7 +14776,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14973,7 +14982,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q69">
         <v>1.91</v>
@@ -15129,6 +15138,418 @@
         <v>0</v>
       </c>
       <c r="BP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7828527</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45805.54166666666</v>
+      </c>
+      <c r="F70">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>81</v>
+      </c>
+      <c r="P70" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q70">
+        <v>2.35</v>
+      </c>
+      <c r="R70">
+        <v>2.19</v>
+      </c>
+      <c r="S70">
+        <v>3.3</v>
+      </c>
+      <c r="T70">
+        <v>1.27</v>
+      </c>
+      <c r="U70">
+        <v>3.2</v>
+      </c>
+      <c r="V70">
+        <v>2.49</v>
+      </c>
+      <c r="W70">
+        <v>1.52</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>1.09</v>
+      </c>
+      <c r="Z70">
+        <v>2.09</v>
+      </c>
+      <c r="AA70">
+        <v>3.5</v>
+      </c>
+      <c r="AB70">
+        <v>2.8</v>
+      </c>
+      <c r="AC70">
+        <v>1.05</v>
+      </c>
+      <c r="AD70">
+        <v>11</v>
+      </c>
+      <c r="AE70">
+        <v>1.25</v>
+      </c>
+      <c r="AF70">
+        <v>3.8</v>
+      </c>
+      <c r="AG70">
+        <v>1.75</v>
+      </c>
+      <c r="AH70">
+        <v>2.14</v>
+      </c>
+      <c r="AI70">
+        <v>1.65</v>
+      </c>
+      <c r="AJ70">
+        <v>2.2</v>
+      </c>
+      <c r="AK70">
+        <v>1.3</v>
+      </c>
+      <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
+        <v>1.62</v>
+      </c>
+      <c r="AN70">
+        <v>2.17</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>1.86</v>
+      </c>
+      <c r="AQ70">
+        <v>1.29</v>
+      </c>
+      <c r="AR70">
+        <v>2.19</v>
+      </c>
+      <c r="AS70">
+        <v>1.95</v>
+      </c>
+      <c r="AT70">
+        <v>4.14</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>9</v>
+      </c>
+      <c r="AW70">
+        <v>2</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>5</v>
+      </c>
+      <c r="AZ70">
+        <v>15</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>7</v>
+      </c>
+      <c r="BC70">
+        <v>12</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7828526</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45805.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>71</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>134</v>
+      </c>
+      <c r="P71" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q71">
+        <v>1.55</v>
+      </c>
+      <c r="R71">
+        <v>2.9</v>
+      </c>
+      <c r="S71">
+        <v>8.1</v>
+      </c>
+      <c r="T71">
+        <v>1.22</v>
+      </c>
+      <c r="U71">
+        <v>3.8</v>
+      </c>
+      <c r="V71">
+        <v>2.21</v>
+      </c>
+      <c r="W71">
+        <v>1.65</v>
+      </c>
+      <c r="X71">
+        <v>4.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.17</v>
+      </c>
+      <c r="Z71">
+        <v>1.19</v>
+      </c>
+      <c r="AA71">
+        <v>6</v>
+      </c>
+      <c r="AB71">
+        <v>14</v>
+      </c>
+      <c r="AC71">
+        <v>1.03</v>
+      </c>
+      <c r="AD71">
+        <v>12</v>
+      </c>
+      <c r="AE71">
+        <v>1.15</v>
+      </c>
+      <c r="AF71">
+        <v>5</v>
+      </c>
+      <c r="AG71">
+        <v>1.42</v>
+      </c>
+      <c r="AH71">
+        <v>2.45</v>
+      </c>
+      <c r="AI71">
+        <v>2.2</v>
+      </c>
+      <c r="AJ71">
+        <v>1.6</v>
+      </c>
+      <c r="AK71">
+        <v>1.13</v>
+      </c>
+      <c r="AL71">
+        <v>1.06</v>
+      </c>
+      <c r="AM71">
+        <v>4.8</v>
+      </c>
+      <c r="AN71">
+        <v>2.67</v>
+      </c>
+      <c r="AO71">
+        <v>1.5</v>
+      </c>
+      <c r="AP71">
+        <v>2.43</v>
+      </c>
+      <c r="AQ71">
+        <v>1.43</v>
+      </c>
+      <c r="AR71">
+        <v>2.37</v>
+      </c>
+      <c r="AS71">
+        <v>1.53</v>
+      </c>
+      <c r="AT71">
+        <v>3.9</v>
+      </c>
+      <c r="AU71">
+        <v>10</v>
+      </c>
+      <c r="AV71">
+        <v>2</v>
+      </c>
+      <c r="AW71">
+        <v>11</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>21</v>
+      </c>
+      <c r="AZ71">
+        <v>4</v>
+      </c>
+      <c r="BA71">
+        <v>10</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>13</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['58', '62']</t>
   </si>
   <si>
+    <t>['54', '60', '90+3']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -560,6 +563,9 @@
   </si>
   <si>
     <t>['15', '79']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1392,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1592,7 +1598,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>2.17</v>
@@ -1798,7 +1804,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2004,7 +2010,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2085,7 +2091,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2210,7 +2216,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1.43</v>
@@ -2416,7 +2422,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2622,7 +2628,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3240,7 +3246,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3652,7 +3658,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3858,7 +3864,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4064,7 +4070,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4145,7 +4151,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4270,7 +4276,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4476,7 +4482,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4760,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.57</v>
@@ -5094,7 +5100,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5381,7 +5387,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ22">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>3.01</v>
@@ -5506,7 +5512,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5712,7 +5718,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5918,7 +5924,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6124,7 +6130,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6536,7 +6542,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6742,7 +6748,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7360,7 +7366,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7566,7 +7572,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7978,7 +7984,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8184,7 +8190,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8468,7 +8474,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1.29</v>
@@ -8802,7 +8808,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8883,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>1.2</v>
@@ -9008,7 +9014,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9214,7 +9220,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9626,7 +9632,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9832,7 +9838,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -9910,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10038,7 +10044,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10244,7 +10250,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10450,7 +10456,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -10943,7 +10949,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ49">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>2.61</v>
@@ -11068,7 +11074,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11146,7 +11152,7 @@
         <v>1.8</v>
       </c>
       <c r="AP50">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>2.14</v>
@@ -11274,7 +11280,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11480,7 +11486,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11686,7 +11692,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -11973,7 +11979,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.43</v>
@@ -12304,7 +12310,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12510,7 +12516,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12922,7 +12928,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13128,7 +13134,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13334,7 +13340,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13540,7 +13546,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13621,7 +13627,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.18</v>
@@ -13746,7 +13752,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>1.64</v>
@@ -14030,7 +14036,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1.71</v>
@@ -14364,7 +14370,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>4.35</v>
@@ -14776,7 +14782,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14982,7 +14988,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>1.91</v>
@@ -15188,7 +15194,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q70">
         <v>2.35</v>
@@ -15394,7 +15400,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>1.55</v>
@@ -15550,6 +15556,212 @@
         <v>0</v>
       </c>
       <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7828528</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45807.58333333334</v>
+      </c>
+      <c r="F72">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>135</v>
+      </c>
+      <c r="P72" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q72">
+        <v>1.46</v>
+      </c>
+      <c r="R72">
+        <v>2.81</v>
+      </c>
+      <c r="S72">
+        <v>7.24</v>
+      </c>
+      <c r="T72">
+        <v>1.18</v>
+      </c>
+      <c r="U72">
+        <v>4.2</v>
+      </c>
+      <c r="V72">
+        <v>2.03</v>
+      </c>
+      <c r="W72">
+        <v>1.73</v>
+      </c>
+      <c r="X72">
+        <v>4.4</v>
+      </c>
+      <c r="Y72">
+        <v>1.2</v>
+      </c>
+      <c r="Z72">
+        <v>1.17</v>
+      </c>
+      <c r="AA72">
+        <v>7</v>
+      </c>
+      <c r="AB72">
+        <v>11</v>
+      </c>
+      <c r="AC72">
+        <v>1.02</v>
+      </c>
+      <c r="AD72">
+        <v>21</v>
+      </c>
+      <c r="AE72">
+        <v>1.1</v>
+      </c>
+      <c r="AF72">
+        <v>5.75</v>
+      </c>
+      <c r="AG72">
+        <v>1.4</v>
+      </c>
+      <c r="AH72">
+        <v>2.9</v>
+      </c>
+      <c r="AI72">
+        <v>1.83</v>
+      </c>
+      <c r="AJ72">
+        <v>1.8</v>
+      </c>
+      <c r="AK72">
+        <v>1.06</v>
+      </c>
+      <c r="AL72">
+        <v>1.08</v>
+      </c>
+      <c r="AM72">
+        <v>3.75</v>
+      </c>
+      <c r="AN72">
+        <v>1.86</v>
+      </c>
+      <c r="AO72">
+        <v>0.57</v>
+      </c>
+      <c r="AP72">
+        <v>2</v>
+      </c>
+      <c r="AQ72">
+        <v>0.5</v>
+      </c>
+      <c r="AR72">
+        <v>1.73</v>
+      </c>
+      <c r="AS72">
+        <v>1.27</v>
+      </c>
+      <c r="AT72">
+        <v>3</v>
+      </c>
+      <c r="AU72">
+        <v>10</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>12</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>22</v>
+      </c>
+      <c r="AZ72">
+        <v>5</v>
+      </c>
+      <c r="BA72">
+        <v>12</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>16</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2503,7 +2506,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ8">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2912,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ10">
         <v>0.14</v>
@@ -3327,7 +3330,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR12">
         <v>0.79</v>
@@ -4560,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ18">
         <v>2.17</v>
@@ -5593,7 +5596,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ23">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
         <v>1.34</v>
@@ -7650,7 +7653,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
         <v>1.29</v>
@@ -8886,7 +8889,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -9095,7 +9098,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ40">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.8</v>
@@ -10331,7 +10334,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10534,7 +10537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ47">
         <v>1.43</v>
@@ -12185,7 +12188,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ55">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR55">
         <v>2.3</v>
@@ -12594,7 +12597,7 @@
         <v>2.6</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ57">
         <v>2.71</v>
@@ -14039,7 +14042,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR64">
         <v>1.9</v>
@@ -15762,6 +15765,212 @@
         <v>0</v>
       </c>
       <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7828529</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45808.35416666666</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s">
+        <v>70</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q73">
+        <v>8.5</v>
+      </c>
+      <c r="R73">
+        <v>3</v>
+      </c>
+      <c r="S73">
+        <v>1.4</v>
+      </c>
+      <c r="T73">
+        <v>1.17</v>
+      </c>
+      <c r="U73">
+        <v>5</v>
+      </c>
+      <c r="V73">
+        <v>1.82</v>
+      </c>
+      <c r="W73">
+        <v>1.86</v>
+      </c>
+      <c r="X73">
+        <v>3.8</v>
+      </c>
+      <c r="Y73">
+        <v>1.24</v>
+      </c>
+      <c r="Z73">
+        <v>14.07</v>
+      </c>
+      <c r="AA73">
+        <v>6.5</v>
+      </c>
+      <c r="AB73">
+        <v>1.14</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>29</v>
+      </c>
+      <c r="AE73">
+        <v>1.09</v>
+      </c>
+      <c r="AF73">
+        <v>7.5</v>
+      </c>
+      <c r="AG73">
+        <v>1.28</v>
+      </c>
+      <c r="AH73">
+        <v>3.25</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.91</v>
+      </c>
+      <c r="AK73">
+        <v>4.4</v>
+      </c>
+      <c r="AL73">
+        <v>1.04</v>
+      </c>
+      <c r="AM73">
+        <v>1.03</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1.71</v>
+      </c>
+      <c r="AP73">
+        <v>0.86</v>
+      </c>
+      <c r="AQ73">
+        <v>1.88</v>
+      </c>
+      <c r="AR73">
+        <v>1.33</v>
+      </c>
+      <c r="AS73">
+        <v>2.48</v>
+      </c>
+      <c r="AT73">
+        <v>3.81</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>10</v>
+      </c>
+      <c r="AZ73">
+        <v>11</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>6</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1682,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3121,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ11">
         <v>2.14</v>
@@ -4566,7 +4569,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4975,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>0.14</v>
@@ -5387,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
         <v>0.5</v>
@@ -7241,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1.43</v>
@@ -8274,7 +8277,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -10128,7 +10131,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR45">
         <v>1.06</v>
@@ -10331,7 +10334,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
         <v>1.88</v>
@@ -11364,7 +11367,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR51">
         <v>1.64</v>
@@ -12391,7 +12394,7 @@
         <v>0.6</v>
       </c>
       <c r="AP56">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
         <v>0.57</v>
@@ -13833,7 +13836,7 @@
         <v>1.17</v>
       </c>
       <c r="AP63">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14454,7 +14457,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ66">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR66">
         <v>1.52</v>
@@ -15971,6 +15974,212 @@
         <v>0</v>
       </c>
       <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7828530</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45808.45833333334</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>81</v>
+      </c>
+      <c r="P74" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74">
+        <v>2.2</v>
+      </c>
+      <c r="R74">
+        <v>2.35</v>
+      </c>
+      <c r="S74">
+        <v>3.6</v>
+      </c>
+      <c r="T74">
+        <v>1.27</v>
+      </c>
+      <c r="U74">
+        <v>3.2</v>
+      </c>
+      <c r="V74">
+        <v>2.4</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>4.9</v>
+      </c>
+      <c r="Y74">
+        <v>1.12</v>
+      </c>
+      <c r="Z74">
+        <v>1.5</v>
+      </c>
+      <c r="AA74">
+        <v>3.98</v>
+      </c>
+      <c r="AB74">
+        <v>5</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>12</v>
+      </c>
+      <c r="AE74">
+        <v>1.22</v>
+      </c>
+      <c r="AF74">
+        <v>3.95</v>
+      </c>
+      <c r="AG74">
+        <v>1.53</v>
+      </c>
+      <c r="AH74">
+        <v>2.25</v>
+      </c>
+      <c r="AI74">
+        <v>1.67</v>
+      </c>
+      <c r="AJ74">
+        <v>2.2</v>
+      </c>
+      <c r="AK74">
+        <v>1.25</v>
+      </c>
+      <c r="AL74">
+        <v>1.18</v>
+      </c>
+      <c r="AM74">
+        <v>2.05</v>
+      </c>
+      <c r="AN74">
+        <v>2.43</v>
+      </c>
+      <c r="AO74">
+        <v>2.17</v>
+      </c>
+      <c r="AP74">
+        <v>2.13</v>
+      </c>
+      <c r="AQ74">
+        <v>2.29</v>
+      </c>
+      <c r="AR74">
+        <v>2.22</v>
+      </c>
+      <c r="AS74">
+        <v>1.92</v>
+      </c>
+      <c r="AT74">
+        <v>4.14</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>3</v>
+      </c>
+      <c r="AW74">
+        <v>5</v>
+      </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>9</v>
+      </c>
+      <c r="BA74">
+        <v>7</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>11</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>0</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,9 @@
     <t>['54', '60', '90+3']</t>
   </si>
   <si>
+    <t>['26', '59']</t>
+  </si>
+  <si>
     <t>['34', '59', '86']</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1398,7 +1404,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1476,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>2.14</v>
@@ -1604,7 +1610,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.2</v>
@@ -1810,7 +1816,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2016,7 +2022,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2222,7 +2228,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>1.83</v>
@@ -2428,7 +2434,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2634,7 +2640,7 @@
         <v>81</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2715,7 +2721,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3252,7 +3258,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3330,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1.88</v>
@@ -3664,7 +3670,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q14">
         <v>5.5</v>
@@ -3870,7 +3876,7 @@
         <v>90</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -4076,7 +4082,7 @@
         <v>91</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>2.1</v>
@@ -4282,7 +4288,7 @@
         <v>81</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.38</v>
@@ -4488,7 +4494,7 @@
         <v>81</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>3.4</v>
@@ -4775,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>1.56</v>
@@ -5106,7 +5112,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>1.91</v>
@@ -5518,7 +5524,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>5.5</v>
@@ -5724,7 +5730,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5930,7 +5936,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -6008,7 +6014,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6136,7 +6142,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.1</v>
@@ -6217,7 +6223,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ26">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.15</v>
@@ -6548,7 +6554,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>1.3</v>
@@ -6629,7 +6635,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>2.38</v>
@@ -6754,7 +6760,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7372,7 +7378,7 @@
         <v>81</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7578,7 +7584,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>8.449999999999999</v>
@@ -7990,7 +7996,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8068,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0.14</v>
@@ -8196,7 +8202,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>4.25</v>
@@ -8814,7 +8820,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9020,7 +9026,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>12</v>
@@ -9226,7 +9232,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>3.77</v>
@@ -9513,7 +9519,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9638,7 +9644,7 @@
         <v>112</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>1.35</v>
@@ -9844,7 +9850,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>1.66</v>
@@ -10050,7 +10056,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>4.75</v>
@@ -10128,7 +10134,7 @@
         <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2.29</v>
@@ -10256,7 +10262,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>5.2</v>
@@ -10462,7 +10468,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.35</v>
@@ -11080,7 +11086,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>2.62</v>
@@ -11286,7 +11292,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>4.55</v>
@@ -11492,7 +11498,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>6.5</v>
@@ -11570,7 +11576,7 @@
         <v>2.5</v>
       </c>
       <c r="AP52">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>2.71</v>
@@ -11698,7 +11704,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>3.35</v>
@@ -12316,7 +12322,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>1.56</v>
@@ -12397,7 +12403,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>2.2</v>
@@ -12522,7 +12528,7 @@
         <v>81</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>5.25</v>
@@ -12934,7 +12940,7 @@
         <v>81</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q59">
         <v>5</v>
@@ -13140,7 +13146,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13346,7 +13352,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>2.27</v>
@@ -13552,7 +13558,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13630,7 +13636,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -13758,7 +13764,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>1.64</v>
@@ -14251,7 +14257,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>2.11</v>
@@ -14376,7 +14382,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>4.35</v>
@@ -14788,7 +14794,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14994,7 +15000,7 @@
         <v>133</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>1.91</v>
@@ -15200,7 +15206,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q70">
         <v>2.35</v>
@@ -15406,7 +15412,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>1.55</v>
@@ -15612,7 +15618,7 @@
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>1.46</v>
@@ -15818,7 +15824,7 @@
         <v>81</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>8.5</v>
@@ -16024,7 +16030,7 @@
         <v>81</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16180,6 +16186,212 @@
         <v>0</v>
       </c>
       <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7828531</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45809.35416666666</v>
+      </c>
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>136</v>
+      </c>
+      <c r="P75" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q75">
+        <v>2.3</v>
+      </c>
+      <c r="R75">
+        <v>2.2</v>
+      </c>
+      <c r="S75">
+        <v>4.2</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>2.95</v>
+      </c>
+      <c r="V75">
+        <v>2.4</v>
+      </c>
+      <c r="W75">
+        <v>1.43</v>
+      </c>
+      <c r="X75">
+        <v>4.7</v>
+      </c>
+      <c r="Y75">
+        <v>1.09</v>
+      </c>
+      <c r="Z75">
+        <v>1.91</v>
+      </c>
+      <c r="AA75">
+        <v>3.5</v>
+      </c>
+      <c r="AB75">
+        <v>3.6</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>12</v>
+      </c>
+      <c r="AE75">
+        <v>1.22</v>
+      </c>
+      <c r="AF75">
+        <v>3.8</v>
+      </c>
+      <c r="AG75">
+        <v>1.7</v>
+      </c>
+      <c r="AH75">
+        <v>2.05</v>
+      </c>
+      <c r="AI75">
+        <v>1.64</v>
+      </c>
+      <c r="AJ75">
+        <v>1.95</v>
+      </c>
+      <c r="AK75">
+        <v>1.29</v>
+      </c>
+      <c r="AL75">
+        <v>1.24</v>
+      </c>
+      <c r="AM75">
+        <v>1.82</v>
+      </c>
+      <c r="AN75">
+        <v>0.71</v>
+      </c>
+      <c r="AO75">
+        <v>0.57</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.34</v>
+      </c>
+      <c r="AS75">
+        <v>0.98</v>
+      </c>
+      <c r="AT75">
+        <v>2.32</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>14</v>
+      </c>
+      <c r="AZ75">
+        <v>11</v>
+      </c>
+      <c r="BA75">
+        <v>2</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Estonia Meistriliiga_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2100,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -3133,7 +3136,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ11">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3748,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14">
         <v>2.71</v>
@@ -5193,7 +5196,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ21">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR21">
         <v>2.18</v>
@@ -6220,7 +6223,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>0.5</v>
@@ -7459,7 +7462,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR32">
         <v>1.48</v>
@@ -9104,7 +9107,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>1.88</v>
@@ -9313,7 +9316,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>1.43</v>
@@ -10752,7 +10755,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>1.29</v>
@@ -11167,7 +11170,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR50">
         <v>1.94</v>
@@ -11782,7 +11785,7 @@
         <v>0.8</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -13021,7 +13024,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR59">
         <v>1.1</v>
@@ -14460,7 +14463,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ66">
         <v>2.29</v>
@@ -16393,6 +16396,212 @@
       </c>
       <c r="BP75">
         <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7828532</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q76">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="R76">
+        <v>3.1</v>
+      </c>
+      <c r="S76">
+        <v>1.46</v>
+      </c>
+      <c r="T76">
+        <v>1.14</v>
+      </c>
+      <c r="U76">
+        <v>5.25</v>
+      </c>
+      <c r="V76">
+        <v>1.8</v>
+      </c>
+      <c r="W76">
+        <v>1.95</v>
+      </c>
+      <c r="X76">
+        <v>3.1</v>
+      </c>
+      <c r="Y76">
+        <v>1.27</v>
+      </c>
+      <c r="Z76">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>5.9</v>
+      </c>
+      <c r="AB76">
+        <v>1.2</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>29</v>
+      </c>
+      <c r="AE76">
+        <v>1.03</v>
+      </c>
+      <c r="AF76">
+        <v>7.4</v>
+      </c>
+      <c r="AG76">
+        <v>1.29</v>
+      </c>
+      <c r="AH76">
+        <v>3.27</v>
+      </c>
+      <c r="AI76">
+        <v>1.7</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>1.03</v>
+      </c>
+      <c r="AL76">
+        <v>1.08</v>
+      </c>
+      <c r="AM76">
+        <v>1.04</v>
+      </c>
+      <c r="AN76">
+        <v>0.86</v>
+      </c>
+      <c r="AO76">
+        <v>2.14</v>
+      </c>
+      <c r="AP76">
+        <v>0.75</v>
+      </c>
+      <c r="AQ76">
+        <v>2.25</v>
+      </c>
+      <c r="AR76">
+        <v>1.51</v>
+      </c>
+      <c r="AS76">
+        <v>2.19</v>
+      </c>
+      <c r="AT76">
+        <v>3.7</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>10</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>16</v>
+      </c>
+      <c r="AY76">
+        <v>11</v>
+      </c>
+      <c r="AZ76">
+        <v>26</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>13</v>
+      </c>
+      <c r="BC76">
+        <v>21</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>2</v>
+      </c>
+      <c r="BP76">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
